--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FFD560-2AB3-FA45-96C6-599AC514C2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE762D99-2D40-F44E-8BC8-CCAFDBBAEE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
   <sheets>
     <sheet name="RL負荷" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="20">
   <si>
     <t>電流[A]</t>
     <rPh sb="0" eb="2">
@@ -173,6 +173,27 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t xml:space="preserve">イソウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電流</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンリュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電力</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電圧</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンアツ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3134,10 +3155,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8840A58-50CD-6F47-B94C-470F4D6186F0}">
-  <dimension ref="B2:P29"/>
+  <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3159,16 +3180,16 @@
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>4</v>
@@ -3180,16 +3201,16 @@
         <v>11</v>
       </c>
       <c r="J3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
         <v>4</v>
@@ -3462,16 +3483,16 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -3483,16 +3504,16 @@
         <v>11</v>
       </c>
       <c r="J12" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N12" t="s">
         <v>4</v>
@@ -3761,16 +3782,16 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
@@ -3918,6 +3939,52 @@
     <row r="29" spans="2:16">
       <c r="F29" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3936,7 +4003,7 @@
   <dimension ref="B2:S30"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="M3" sqref="M3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3970,16 +4037,16 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
@@ -3991,16 +4058,16 @@
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N3" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q3" t="s">
         <v>4</v>
@@ -4298,16 +4365,16 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I12" t="s">
         <v>4</v>
@@ -4319,16 +4386,16 @@
         <v>11</v>
       </c>
       <c r="M12" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="N12" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="O12" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="P12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q12" t="s">
         <v>4</v>
@@ -4621,16 +4688,16 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s">
         <v>4</v>
@@ -4812,8 +4879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81516389-A825-9844-BCA4-5C21616759EE}">
   <dimension ref="B2:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4836,16 +4903,16 @@
     </row>
     <row r="4" spans="2:17">
       <c r="B4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -4857,16 +4924,16 @@
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="O4" t="s">
         <v>4</v>
@@ -4943,11 +5010,11 @@
         <v>0.36</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G9" si="0">C6/(D6*E6)</f>
+        <f t="shared" ref="G6:G8" si="0">C6/(D6*E6)</f>
         <v>0.29868913857677903</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H9" si="1">D6*E6</f>
+        <f t="shared" ref="H6:H8" si="1">D6*E6</f>
         <v>213.6</v>
       </c>
       <c r="K6">
@@ -4966,11 +5033,11 @@
         <v>-0.34</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P9" si="2">L6/(M6*N6)</f>
+        <f t="shared" ref="P6:P8" si="2">L6/(M6*N6)</f>
         <v>0.33463912797255496</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q9" si="3">M6*N6</f>
+        <f t="shared" ref="Q6:Q8" si="3">M6*N6</f>
         <v>213.66299999999998</v>
       </c>
     </row>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE762D99-2D40-F44E-8BC8-CCAFDBBAEE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E8B374-1017-FD42-A49A-9E805A775A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
+    <workbookView xWindow="2560" yWindow="340" windowWidth="28500" windowHeight="13400" activeTab="1" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
   <sheets>
     <sheet name="RL負荷" sheetId="1" r:id="rId1"/>
-    <sheet name="RC負荷" sheetId="2" r:id="rId2"/>
-    <sheet name="低力率" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="RC負荷" sheetId="2" r:id="rId3"/>
+    <sheet name="低力率" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="49">
   <si>
     <t>電流[A]</t>
     <rPh sb="0" eb="2">
@@ -197,11 +198,204 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>装置名</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ソウチ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造会社</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">セイゾウガイシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>型番</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カタバン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>定格</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">テイカク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製造番号</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">バンゴウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電力計</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">デンリョクケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低力率用電力計</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイリキリツ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ヨウ </t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t xml:space="preserve">デンリョクケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交流用電圧計</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">コウリュウヨウ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">デンアツ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>交流用電流計</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">コウリュウヨウ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">デンリュウケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力率計</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">リキリツケイ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YOKOGAWA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-5038.H1.2/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総合負荷装置</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ソウゴウフカ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ソウチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山菱電機株式会社</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヤマビシ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">デンキ </t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">カブシキ </t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ガイシャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UL-100-30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンジ：120-240V, 5-25A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンジ：120-240V, 1-5A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-3039.44.9/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NO.OG 0575</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライダック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東芝</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トウシバ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-5091.H1.2/3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-130V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>100V, 30A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L94-004164</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レンジ：1-5A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-2044.45.1/7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>120V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-2054.49.1/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -241,11 +435,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -380,7 +583,7 @@
             <c:numRef>
               <c:f>RL負荷!$E$4:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.01</c:v>
@@ -404,7 +607,7 @@
             <c:numRef>
               <c:f>RL負荷!$C$4:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>102.5</c:v>
@@ -463,7 +666,7 @@
             <c:numRef>
               <c:f>RL負荷!$E$13:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -487,7 +690,7 @@
             <c:numRef>
               <c:f>RL負荷!$C$13:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
@@ -546,7 +749,7 @@
             <c:numRef>
               <c:f>RL負荷!$E$22:$E$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.01</c:v>
@@ -570,7 +773,7 @@
             <c:numRef>
               <c:f>RL負荷!$C$22:$C$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>69</c:v>
@@ -629,7 +832,7 @@
             <c:numRef>
               <c:f>RL負荷!$M$4:$M$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -653,7 +856,7 @@
             <c:numRef>
               <c:f>RL負荷!$K$4:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>55</c:v>
@@ -712,7 +915,7 @@
             <c:numRef>
               <c:f>RL負荷!$M$13:$M$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.99</c:v>
@@ -736,7 +939,7 @@
             <c:numRef>
               <c:f>RL負荷!$K$13:$K$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>37.5</c:v>
@@ -795,7 +998,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -857,7 +1060,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1063,7 +1266,7 @@
             <c:numRef>
               <c:f>RC負荷!$H$4:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.02</c:v>
@@ -1087,7 +1290,7 @@
             <c:numRef>
               <c:f>RC負荷!$F$4:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>112.5</c:v>
@@ -1146,7 +1349,7 @@
             <c:numRef>
               <c:f>RC負荷!$H$13:$H$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1170,7 +1373,7 @@
             <c:numRef>
               <c:f>RC負荷!$F$13:$F$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>97.5</c:v>
@@ -1229,7 +1432,7 @@
             <c:numRef>
               <c:f>RC負荷!$H$22:$H$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
@@ -1253,7 +1456,7 @@
             <c:numRef>
               <c:f>RC負荷!$F$22:$F$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>84.5</c:v>
@@ -1312,7 +1515,7 @@
             <c:numRef>
               <c:f>RC負荷!$P$4:$P$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.01</c:v>
@@ -1336,7 +1539,7 @@
             <c:numRef>
               <c:f>RC負荷!$N$4:$N$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>69</c:v>
@@ -1395,7 +1598,7 @@
             <c:numRef>
               <c:f>RC負荷!$P$13:$P$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.99</c:v>
@@ -1419,7 +1622,7 @@
             <c:numRef>
               <c:f>RC負荷!$N$13:$N$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>45</c:v>
@@ -1478,7 +1681,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1540,7 +1743,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3158,7 +3361,7 @@
   <dimension ref="B2:P35"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:P3"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3226,48 +3429,48 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <f>20.5*5</f>
         <v>102.5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>103.1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>1.01</v>
       </c>
       <c r="F4">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <f>C4/(D4*E4)</f>
         <v>0.98433703700146935</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>D4*E4</f>
         <v>104.131</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <f>11*5</f>
         <v>55</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>104.7</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="4">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="4">
         <f>K4/(L4*M4)</f>
         <v>0.52531041069723017</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="2">
         <f>L4*M4</f>
         <v>104.7</v>
       </c>
@@ -3276,48 +3479,48 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <f>41*5</f>
         <v>205</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>102.2</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>2.0099999999999998</v>
       </c>
       <c r="F5">
         <v>0.995</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <f t="shared" ref="G5:G8" si="0">C5/(D5*E5)</f>
         <v>0.99794569228222885</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H8" si="1">D5*E5</f>
         <v>205.422</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <f>19.5*5</f>
         <v>97.5</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>104</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="3">
         <v>2.04</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>0.5</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <f t="shared" ref="O5:O8" si="2">K5/(L5*M5)</f>
         <v>0.4595588235294118</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="2">
         <f t="shared" ref="P5:P8" si="3">L5*M5</f>
         <v>212.16</v>
       </c>
@@ -3326,48 +3529,48 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <f>60.2*5</f>
         <v>301</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>101.9</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>2.98</v>
       </c>
       <c r="F6">
         <v>0.996</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <f t="shared" si="0"/>
         <v>0.99123367428259035</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>303.66200000000003</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <f>27.2*5</f>
         <v>136</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>103.8</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="3">
         <v>3</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="4">
         <v>0.47799999999999998</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <f t="shared" si="2"/>
         <v>0.43673731535003213</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="2">
         <f t="shared" si="3"/>
         <v>311.39999999999998</v>
       </c>
@@ -3376,48 +3579,48 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <f>81.5*5</f>
         <v>407.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>101</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>4</v>
       </c>
       <c r="F7">
         <v>0.997</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>1.0086633663366336</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f>35.8*5</f>
         <v>179</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>103.1</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="3">
         <v>4.01</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="4">
         <v>0.47</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <f t="shared" si="2"/>
         <v>0.43296221134844753</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="2">
         <f t="shared" si="3"/>
         <v>413.43099999999998</v>
       </c>
@@ -3426,51 +3629,67 @@
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <f>99.5*5</f>
         <v>497.5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>100.8</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>5</v>
       </c>
       <c r="F8">
         <v>0.998</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>0.98710317460317465</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <f>43.4*5</f>
         <v>217</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>103</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="3">
         <v>5.01</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="4">
         <v>0.46</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <f t="shared" si="2"/>
         <v>0.42051818692711668</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="2">
         <f t="shared" si="3"/>
         <v>516.03</v>
       </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="1" t="s">
@@ -3480,6 +3699,12 @@
       <c r="J11" t="s">
         <v>10</v>
       </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="2"/>
     </row>
     <row r="12" spans="2:16">
       <c r="B12" t="s">
@@ -3506,22 +3731,22 @@
       <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="O12" t="s">
+      <c r="O12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3529,48 +3754,48 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <f>11.8*5</f>
         <v>59</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>104.3</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>0.83</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="4">
         <f>C13/(D13*E13)</f>
         <v>0.56567593480345157</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <f>D13*E13</f>
         <v>104.3</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f>7.5*5</f>
         <v>37.5</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="2">
         <v>104.9</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="3">
         <v>0.99</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="4">
         <v>0.46</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="4">
         <f>K13/(L13*M13)</f>
         <v>0.36109426004564232</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="2">
         <f>L13*M13</f>
         <v>103.851</v>
       </c>
@@ -3579,48 +3804,48 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <f>32*5</f>
         <v>160</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>104</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>1.95</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="4">
         <f t="shared" ref="G14:G17" si="4">C14/(D14*E14)</f>
         <v>0.78895463510848129</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <f t="shared" ref="H14:H17" si="5">D14*E14</f>
         <v>202.79999999999998</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <f>12.5*5</f>
         <v>62.5</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="2">
         <v>104.2</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="4">
         <v>0.36499999999999999</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="4">
         <f t="shared" ref="O14:O17" si="6">K14/(L14*M14)</f>
         <v>0.29547195143859384</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="2">
         <f t="shared" ref="P14:P17" si="7">L14*M14</f>
         <v>211.52599999999998</v>
       </c>
@@ -3629,48 +3854,48 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <f>48.5*5</f>
         <v>242.5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>102.9</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>3.01</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>0.8</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="4">
         <f t="shared" si="4"/>
         <v>0.78294250780521035</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <f t="shared" si="5"/>
         <v>309.72899999999998</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <f>16.5*5</f>
         <v>82.5</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="2">
         <v>104.1</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="3">
         <v>2.99</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="4">
         <v>0.316</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="4">
         <f t="shared" si="6"/>
         <v>0.26505257679296018</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="2">
         <f t="shared" si="7"/>
         <v>311.25900000000001</v>
       </c>
@@ -3679,48 +3904,48 @@
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <f>64.5*5</f>
         <v>322.5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>102.3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>4.04</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>0.79800000000000004</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="4">
         <f t="shared" si="4"/>
         <v>0.78031996748061905</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f t="shared" si="5"/>
         <v>413.29199999999997</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <f>21.2*5</f>
         <v>106</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="2">
         <v>103.9</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="3">
         <v>4.0199999999999996</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <v>0.3</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="4">
         <f t="shared" si="6"/>
         <v>0.25378401543772955</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="2">
         <f t="shared" si="7"/>
         <v>417.678</v>
       </c>
@@ -3729,77 +3954,101 @@
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <f>79*5</f>
         <v>395</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>101.9</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>5.01</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>0.79800000000000004</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="4">
         <f t="shared" si="4"/>
         <v>0.77372242756880738</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <f t="shared" si="5"/>
         <v>510.51900000000001</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <f>25*5</f>
         <v>125</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="2">
         <v>104</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="3">
         <v>5.01</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="4">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="4">
         <f t="shared" si="6"/>
         <v>0.23990480577306927</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="2">
         <f t="shared" si="7"/>
         <v>521.04</v>
       </c>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" t="s">
         <v>8</v>
       </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3807,24 +4056,24 @@
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <f>13.8*5</f>
         <v>69</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>104.1</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>1.01</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>0.70099999999999996</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="4">
         <f>C22/(D22*E22)</f>
         <v>0.65626159157702524</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <f>D22*E22</f>
         <v>105.14099999999999</v>
       </c>
@@ -3836,24 +4085,24 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <f>26.2*5</f>
         <v>131</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>103.9</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>0.65</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="4">
         <f t="shared" ref="G23:G26" si="8">C23/(D23*E23)</f>
         <v>0.6210973985027286</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <f t="shared" ref="H23:H26" si="9">D23*E23</f>
         <v>210.917</v>
       </c>
@@ -3862,24 +4111,24 @@
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <f>30.8*5</f>
         <v>154</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>103</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>2.99</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>0.64</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="4">
         <f t="shared" si="8"/>
         <v>0.50004870604279639</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <f t="shared" si="9"/>
         <v>307.97000000000003</v>
       </c>
@@ -3888,24 +4137,24 @@
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <f>50.5*5</f>
         <v>252.5</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>102.9</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>3.99</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>0.63800000000000001</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="4">
         <f t="shared" si="8"/>
         <v>0.61499716248833936</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <f t="shared" si="9"/>
         <v>410.57100000000003</v>
       </c>
@@ -3914,27 +4163,30 @@
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <f>61*5</f>
         <v>305</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>102.1</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>0.625</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="4">
         <f t="shared" si="8"/>
         <v>0.59985288853749963</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <f t="shared" si="9"/>
         <v>508.45800000000003</v>
       </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="H27" s="2"/>
     </row>
     <row r="29" spans="2:16">
       <c r="F29" t="s">
@@ -3999,11 +4251,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B6BAC5-70A1-464F-9ECB-D2159036648A}">
+  <dimension ref="C2:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5116BCC-5083-3C46-BB12-09DA1B273972}">
   <dimension ref="B2:S30"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:S3"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4086,48 +4478,48 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f>22.5*5</f>
         <v>112.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>107</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>1.02</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="4">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <f>F4/(G4*H4)</f>
         <v>1.0307861462341945</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="2">
         <f>G4*H4</f>
         <v>109.14</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="2">
         <f>13.8*5</f>
         <v>69</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="2">
         <v>107.9</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>1.01</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="4">
         <v>-0.64</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="4">
         <f>N4/(O4*P4)</f>
         <v>0.63314950586810292</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="2">
         <f>O4*P4</f>
         <v>108.97900000000001</v>
       </c>
@@ -4139,48 +4531,48 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f>42.8*5</f>
         <v>214</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>106.1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0.996</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <f t="shared" ref="J5:J8" si="0">F5/(G5*H5)</f>
         <v>1.0034652374320669</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="2">
         <f t="shared" ref="K5:K8" si="1">G5*H5</f>
         <v>213.26099999999997</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="2">
         <f>23.2*5</f>
         <v>116</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="2">
         <v>107.5</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>2.02</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="4">
         <v>-0.52</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="4">
         <f t="shared" ref="R5:R8" si="2">N5/(O5*P5)</f>
         <v>0.53419295417913881</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="2">
         <f t="shared" ref="S5:S8" si="3">O5*P5</f>
         <v>217.15</v>
       </c>
@@ -4192,48 +4584,48 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f>63.8*5</f>
         <v>319</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>105.7</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>3.01</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="4">
         <v>0.997</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>1.0026496352429777</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
         <v>318.15699999999998</v>
       </c>
       <c r="M6">
         <v>3</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="2">
         <f>32.2*5</f>
         <v>161</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="2">
         <v>107</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>2.99</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="4">
         <v>-0.48</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="4">
         <f t="shared" si="2"/>
         <v>0.50323508267433503</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="2">
         <f t="shared" si="3"/>
         <v>319.93</v>
       </c>
@@ -4245,48 +4637,48 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f>85.5*5</f>
         <v>427.5</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>105</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>4.0199999999999996</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="4">
         <v>0.997</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>1.0127931769722816</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <f t="shared" si="1"/>
         <v>422.09999999999997</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="2">
         <f>42.2*5</f>
         <v>211</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="2">
         <v>106.9</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>3.98</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="4">
         <v>-0.46600000000000003</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="4">
         <f t="shared" si="2"/>
         <v>0.49593148154241734</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="2">
         <f t="shared" si="3"/>
         <v>425.46200000000005</v>
       </c>
@@ -4298,51 +4690,71 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f>104.2*5</f>
         <v>521</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>103.9</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="4">
         <v>0.998</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>0.99889182442511004</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <f t="shared" si="1"/>
         <v>521.57799999999997</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="2">
         <f>61*5</f>
         <v>305</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="2">
         <v>106.2</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>5.03</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="4">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="4">
         <f t="shared" si="2"/>
         <v>0.57096217422395945</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="2">
         <f t="shared" si="3"/>
         <v>534.18600000000004</v>
       </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="2"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="2"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="2"/>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="1" t="s">
@@ -4353,9 +4765,17 @@
         <v>7</v>
       </c>
       <c r="F11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="2"/>
       <c r="M11" t="s">
         <v>10</v>
       </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="2"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" t="s">
@@ -4373,16 +4793,16 @@
       <c r="G12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M12" t="s">
@@ -4394,16 +4814,16 @@
       <c r="O12" t="s">
         <v>19</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4414,48 +4834,48 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <f>19.5*5</f>
         <v>97.5</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>107.7</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>1</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="4">
         <v>-0.90100000000000002</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <f>F13/(G13*H13)</f>
         <v>0.90529247910863508</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="2">
         <f>G13*H13</f>
         <v>107.7</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="2">
         <f>9*5</f>
         <v>45</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="2">
         <v>108.1</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>0.99</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="4">
         <v>-0.48</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="4">
         <f>N13/(O13*P13)</f>
         <v>0.42048608191068881</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="2">
         <f>O13*P13</f>
         <v>107.01899999999999</v>
       </c>
@@ -4467,48 +4887,48 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <f>37.2*5</f>
         <v>186</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>106.9</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="4">
         <v>-0.84199999999999997</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="4">
         <f t="shared" ref="J14:J17" si="4">F14/(G14*H14)</f>
         <v>0.85711520826517129</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="2">
         <f t="shared" ref="K14:K17" si="5">G14*H14</f>
         <v>217.00699999999998</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="2">
         <f>14*5</f>
         <v>70</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="2">
         <v>107.9</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="4">
         <v>-0.32</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="4">
         <f t="shared" ref="R14:R17" si="6">N14/(O14*P14)</f>
         <v>0.32276061767160491</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="2">
         <f t="shared" ref="S14:S17" si="7">O14*P14</f>
         <v>216.87899999999999</v>
       </c>
@@ -4520,48 +4940,48 @@
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <f>53*5</f>
         <v>265</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>106.1</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>2.97</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="4">
         <v>-0.83</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="4">
         <f t="shared" si="4"/>
         <v>0.84095748563232064</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="2">
         <f t="shared" si="5"/>
         <v>315.11700000000002</v>
       </c>
       <c r="M15">
         <v>3</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="2">
         <f>18.8*5</f>
         <v>94</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="2">
         <v>107.8</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>3</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="4">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="4">
         <f t="shared" si="6"/>
         <v>0.29066171923314782</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="2">
         <f t="shared" si="7"/>
         <v>323.39999999999998</v>
       </c>
@@ -4573,48 +4993,48 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f>70*5</f>
         <v>350</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>105.5</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>3.95</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="4">
         <v>-0.82199999999999995</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <f t="shared" si="4"/>
         <v>0.83988241646169537</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="2">
         <f t="shared" si="5"/>
         <v>416.72500000000002</v>
       </c>
       <c r="M16">
         <v>4</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <f>24*5</f>
         <v>120</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="2">
         <v>107.7</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>4.08</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="4">
         <v>-0.26</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="4">
         <f t="shared" si="6"/>
         <v>0.27308973728767272</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="2">
         <f t="shared" si="7"/>
         <v>439.416</v>
       </c>
@@ -4626,51 +5046,64 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <f>86.4*5</f>
         <v>432</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>105</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>0.49</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="4">
         <v>-0.82</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="4">
         <f t="shared" si="4"/>
         <v>8.3965014577259485</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="2">
         <f t="shared" si="5"/>
         <v>51.449999999999996</v>
       </c>
       <c r="M17">
         <v>5</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="2">
         <f>28.8*5</f>
         <v>144</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="2">
         <v>107.1</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>5</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="4">
         <v>-0.24</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="4">
         <f t="shared" si="6"/>
         <v>0.26890756302521007</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="2">
         <f t="shared" si="7"/>
         <v>535.5</v>
       </c>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" t="s">
@@ -4679,6 +5112,10 @@
       <c r="E20" t="s">
         <v>8</v>
       </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" t="s">
@@ -4696,16 +5133,16 @@
       <c r="G21" t="s">
         <v>19</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4716,24 +5153,24 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <f>16.9*5</f>
         <v>84.5</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>107.9</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>1</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="4">
         <v>-0.79</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="4">
         <f>F22/(G22*H22)</f>
         <v>0.7831325301204819</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="2">
         <f>G22*H22</f>
         <v>107.9</v>
       </c>
@@ -4748,24 +5185,24 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <f>31.5*5</f>
         <v>157.5</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>107.2</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>2.04</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="4">
         <v>-0.7</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="4">
         <f t="shared" ref="J23:J26" si="8">F23/(G23*H23)</f>
         <v>0.72020412642669007</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="2">
         <f t="shared" ref="K23:K26" si="9">G23*H23</f>
         <v>218.68800000000002</v>
       </c>
@@ -4777,24 +5214,24 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <f>44.2*5</f>
         <v>221</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>106.1</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>2.98</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="4">
         <v>-0.67600000000000005</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="4">
         <f t="shared" si="8"/>
         <v>0.69897336310559244</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="2">
         <f t="shared" si="9"/>
         <v>316.178</v>
       </c>
@@ -4806,24 +5243,24 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <f>58*5</f>
         <v>290</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>106</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>3.99</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="4">
         <v>-0.66</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="4">
         <f t="shared" si="8"/>
         <v>0.68567645528916632</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="2">
         <f t="shared" si="9"/>
         <v>422.94</v>
       </c>
@@ -4835,24 +5272,24 @@
       <c r="E26">
         <v>5</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <f>71*5</f>
         <v>355</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>105.8</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="4">
         <v>-0.65</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="4">
         <f t="shared" si="8"/>
         <v>0.668403889169221</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="2">
         <f t="shared" si="9"/>
         <v>531.11599999999999</v>
       </c>
@@ -4875,12 +5312,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81516389-A825-9844-BCA4-5C21616759EE}">
   <dimension ref="B2:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:Q4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4949,46 +5386,46 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>39</v>
       </c>
       <c r="D5">
         <v>106.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.46200000000000002</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <f>C5/(D5*E5)</f>
         <v>0.3651685393258427</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>D5*E5</f>
         <v>106.8</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>46.5</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="2">
         <v>106.9</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <v>-0.48399999999999999</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <f>L5/(M5*N5)</f>
         <v>0.43498596819457436</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="2">
         <f>M5*N5</f>
         <v>106.9</v>
       </c>
@@ -4997,46 +5434,46 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>63.8</v>
       </c>
       <c r="D6">
         <v>106.8</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <v>0.36</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <f t="shared" ref="G6:G8" si="0">C6/(D6*E6)</f>
         <v>0.29868913857677903</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f t="shared" ref="H6:H8" si="1">D6*E6</f>
         <v>213.6</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>71.5</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="2">
         <v>106.3</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>2.0099999999999998</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="4">
         <v>-0.34</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="4">
         <f t="shared" ref="P6:P8" si="2">L6/(M6*N6)</f>
         <v>0.33463912797255496</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="2">
         <f t="shared" ref="Q6:Q8" si="3">M6*N6</f>
         <v>213.66299999999998</v>
       </c>
@@ -5045,46 +5482,46 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>84</v>
       </c>
       <c r="D7">
         <v>106.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>3.05</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="4">
         <v>0.308</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="4">
         <f t="shared" si="0"/>
         <v>0.25860078503809747</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>324.82499999999999</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <v>95.8</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="2">
         <v>106</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>2.99</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="4">
         <v>-0.3</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="4">
         <f t="shared" si="2"/>
         <v>0.30226541301192655</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="2">
         <f t="shared" si="3"/>
         <v>316.94</v>
       </c>
@@ -5093,46 +5530,46 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>106</v>
       </c>
       <c r="D8">
         <v>106.1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>3.98</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>0.3</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="4">
         <f t="shared" si="0"/>
         <v>0.25101947058572793</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>422.27799999999996</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>119.5</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="2">
         <v>105.9</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>4.01</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="4">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="4">
         <f t="shared" si="2"/>
         <v>0.28140225451479894</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="2">
         <f t="shared" si="3"/>
         <v>424.65899999999999</v>
       </c>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E8B374-1017-FD42-A49A-9E805A775A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5743A3-0B8B-934A-A957-385540499E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="340" windowWidth="28500" windowHeight="13400" activeTab="1" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
+    <workbookView xWindow="2140" yWindow="7100" windowWidth="28500" windowHeight="13400" activeTab="1" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
   <sheets>
     <sheet name="RL負荷" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="54">
   <si>
     <t>電流[A]</t>
     <rPh sb="0" eb="2">
@@ -340,10 +340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>NO.OG 0575</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スライダック</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -384,6 +380,29 @@
   </si>
   <si>
     <t>B-2054.49.1/1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L94-004318</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04823M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OG 0575</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B-3041</t>
+  </si>
+  <si>
+    <t>レンジ：0.1-300V</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -435,7 +454,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +468,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4255,7 +4277,7 @@
   <dimension ref="C2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4296,6 +4318,9 @@
       <c r="F3" t="s">
         <v>35</v>
       </c>
+      <c r="G3">
+        <v>632</v>
+      </c>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
@@ -4304,8 +4329,14 @@
       <c r="D4" t="s">
         <v>30</v>
       </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
       <c r="F4" t="s">
         <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="3:7">
@@ -4318,6 +4349,12 @@
       <c r="E5" t="s">
         <v>37</v>
       </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
@@ -4327,13 +4364,13 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="3:7">
@@ -4344,24 +4381,27 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
         <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
       </c>
       <c r="G8">
         <v>625</v>
@@ -4378,10 +4418,10 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
         <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5743A3-0B8B-934A-A957-385540499E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B0A12F-2172-B340-B549-049894E73934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="7100" windowWidth="28500" windowHeight="13400" activeTab="1" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
+    <workbookView xWindow="1220" yWindow="5220" windowWidth="28500" windowHeight="13400" activeTab="2" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
   <sheets>
     <sheet name="RL負荷" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="RC負荷" sheetId="2" r:id="rId3"/>
-    <sheet name="低力率" sheetId="3" r:id="rId4"/>
+    <sheet name="RC負荷" sheetId="2" r:id="rId2"/>
+    <sheet name="低力率" sheetId="3" r:id="rId3"/>
+    <sheet name="器具" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
   <si>
     <t>電流[A]</t>
     <rPh sb="0" eb="2">
@@ -403,6 +403,61 @@
   </si>
   <si>
     <t>レンジ：0.1-300V</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電流[$\rm{A}$]</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンリュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電力$P_a[\rm{W}]$</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電圧$V[\rm{V}]$</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンアツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電流$I[\rm{A}]$</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンリュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮相電力$P_a[\rm{VA}]$</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ヒソウデンリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計測力率[-]</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイソク </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">リキリツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算力率[-]</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイサン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">リキリツ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3382,13 +3437,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8840A58-50CD-6F47-B94C-470F4D6186F0}">
   <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="A16" zoomScale="86" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -3405,46 +3461,46 @@
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="P3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -3730,46 +3786,46 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H12" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -4053,25 +4109,25 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:16">
@@ -4273,169 +4329,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B6BAC5-70A1-464F-9ECB-D2159036648A}">
-  <dimension ref="C2:G9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="3:7">
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="3:7">
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="4" spans="3:7">
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5116BCC-5083-3C46-BB12-09DA1B273972}">
   <dimension ref="B2:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4469,46 +4367,46 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="P3" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="Q3" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="2:19">
@@ -4825,46 +4723,46 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>58</v>
       </c>
       <c r="M12" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="P12" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" t="s">
+        <v>60</v>
+      </c>
+      <c r="S12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:19">
@@ -5165,25 +5063,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J21" t="s">
+        <v>60</v>
+      </c>
+      <c r="K21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:19">
@@ -5352,12 +5250,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81516389-A825-9844-BCA4-5C21616759EE}">
   <dimension ref="B2:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5380,46 +5278,46 @@
     </row>
     <row r="4" spans="2:17">
       <c r="B4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="Q4" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -5617,6 +5515,164 @@
     <row r="14" spans="2:17">
       <c r="K14" t="s">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15B6BAC5-70A1-464F-9ECB-D2159036648A}">
+  <dimension ref="C2:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:7">
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B0A12F-2172-B340-B549-049894E73934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEBC655-DB95-1D4F-9A7B-AAB3D8FB26BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="5220" windowWidth="28500" windowHeight="13400" activeTab="2" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
+    <workbookView xWindow="1220" yWindow="5220" windowWidth="28500" windowHeight="13400" activeTab="1" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
   <sheets>
     <sheet name="RL負荷" sheetId="1" r:id="rId1"/>
@@ -3437,8 +3437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8840A58-50CD-6F47-B94C-470F4D6186F0}">
   <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:H21"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4332,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5116BCC-5083-3C46-BB12-09DA1B273972}">
   <dimension ref="B2:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:K21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4342,8 +4342,11 @@
     <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
     <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
@@ -5254,7 +5257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81516389-A825-9844-BCA4-5C21616759EE}">
   <dimension ref="B2:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEBC655-DB95-1D4F-9A7B-AAB3D8FB26BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02ACD88-B1AF-1B4B-88DF-AA3B65776053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="5220" windowWidth="28500" windowHeight="13400" activeTab="1" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
   <si>
     <t>電流[A]</t>
     <rPh sb="0" eb="2">
@@ -454,6 +454,26 @@
     <t>計算力率[-]</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ケイサン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">リキリツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算力率[ - ]</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイサン </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">リキリツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計測力率[ - ]</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイソク </t>
     </rPh>
     <rPh sb="2" eb="4">
       <t xml:space="preserve">リキリツ </t>
@@ -1441,7 +1461,7 @@
                   <c:v>3.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3438,7 +3458,7 @@
   <dimension ref="B2:P35"/>
   <sheetViews>
     <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12:P17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4332,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5116BCC-5083-3C46-BB12-09DA1B273972}">
   <dimension ref="B2:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4995,18 +5015,18 @@
         <v>105</v>
       </c>
       <c r="H17" s="3">
-        <v>0.49</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I17" s="4">
         <v>-0.82</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="4"/>
-        <v>8.3965014577259485</v>
+        <v>0.83965014577259478</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="5"/>
-        <v>51.449999999999996</v>
+        <v>514.5</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -5257,11 +5277,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81516389-A825-9844-BCA4-5C21616759EE}">
   <dimension ref="B2:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:Q4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
@@ -5314,10 +5338,10 @@
         <v>57</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="s">
         <v>58</v>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02ACD88-B1AF-1B4B-88DF-AA3B65776053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B5443F-3026-CE41-9DA8-6C22C11BFF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="5220" windowWidth="28500" windowHeight="13400" activeTab="1" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
+    <workbookView xWindow="1220" yWindow="5220" windowWidth="28500" windowHeight="13400" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
   <sheets>
     <sheet name="RL負荷" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
   <si>
     <t>電流[A]</t>
     <rPh sb="0" eb="2">
@@ -51,40 +51,6 @@
     <t>電力Pa[W]</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">デンリョク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電圧V[V]</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">デンアツ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電流I[A]</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">デンリュウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計測力率</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ケイソク </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">リキリツ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>計算力率</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ケイサン </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">リキリツ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -120,13 +86,6 @@
     <t>力率0.2(R=0.2,X=0.2)</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">リキリツ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>皮相電力</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">ヒソウデンリョク </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,27 +133,6 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t xml:space="preserve">イソウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電流</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">デンリュウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電力</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">デンリョク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電圧</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">デンアツ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3457,8 +3395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8840A58-50CD-6F47-B94C-470F4D6186F0}">
   <dimension ref="B2:P35"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C8" activeCellId="1" sqref="F4:F8 C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3472,55 +3410,55 @@
   <sheetData>
     <row r="2" spans="2:16">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -3791,11 +3729,11 @@
     </row>
     <row r="11" spans="2:16">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1"/>
       <c r="J11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -3806,46 +3744,46 @@
     </row>
     <row r="12" spans="2:16">
       <c r="B12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="N12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -4115,10 +4053,13 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="2"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="2"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -4126,29 +4067,35 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="2"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="2"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22">
@@ -4176,8 +4123,11 @@
         <v>105.14099999999999</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23">
@@ -4204,6 +4154,9 @@
         <f t="shared" ref="H23:H26" si="9">D23*E23</f>
         <v>210.917</v>
       </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="2"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24">
@@ -4288,54 +4241,28 @@
     </row>
     <row r="29" spans="2:16">
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" t="s">
-        <v>4</v>
-      </c>
-      <c r="G33" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>4</v>
-      </c>
-      <c r="G35" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="C31" s="3"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:16">
+      <c r="C32" s="3"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="3"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="3:5">
+      <c r="C34" s="3"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="C35" s="3"/>
+      <c r="E35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4350,10 +4277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5116BCC-5083-3C46-BB12-09DA1B273972}">
-  <dimension ref="B2:S30"/>
+  <dimension ref="B2:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E29:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4371,15 +4298,15 @@
   <sheetData>
     <row r="2" spans="2:19">
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1"/>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:19">
@@ -4390,46 +4317,46 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="S3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:19">
@@ -4719,11 +4646,11 @@
     </row>
     <row r="11" spans="2:19">
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1"/>
       <c r="H11" s="3"/>
@@ -4731,7 +4658,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="2"/>
       <c r="M11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="4"/>
@@ -4746,46 +4673,46 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="N12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="O12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="P12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q12" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R12" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="S12" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:19">
@@ -5068,10 +4995,10 @@
     </row>
     <row r="20" spans="2:19">
       <c r="B20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="4"/>
@@ -5086,25 +5013,25 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:19">
@@ -5136,7 +5063,7 @@
         <v>107.9</v>
       </c>
       <c r="N22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="2:19">
@@ -5255,10 +5182,33 @@
         <v>531.11599999999999</v>
       </c>
     </row>
+    <row r="29" spans="2:19">
+      <c r="E29" s="3"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="2"/>
+    </row>
     <row r="30" spans="2:19">
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="2"/>
       <c r="I30" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="E31" s="3"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5289,62 +5239,62 @@
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s">
-        <v>62</v>
-      </c>
       <c r="P4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="Q4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -5541,7 +5491,7 @@
     </row>
     <row r="14" spans="2:17">
       <c r="K14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -5568,33 +5518,33 @@
   <sheetData>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G3">
         <v>632</v>
@@ -5602,84 +5552,84 @@
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="3:7">
       <c r="C5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G8">
         <v>625</v>
@@ -5687,19 +5637,19 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10627"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B5443F-3026-CE41-9DA8-6C22C11BFF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB013142-C27C-C44B-A1A5-A535DC500E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="5220" windowWidth="28500" windowHeight="13400" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
+    <workbookView xWindow="1220" yWindow="2580" windowWidth="28100" windowHeight="16040" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
   <sheets>
     <sheet name="RL負荷" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,32 @@
     <sheet name="低力率" sheetId="3" r:id="rId3"/>
     <sheet name="器具" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">RL負荷!$C$13:$C$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">RL負荷!$C$22:$C$26</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">RL負荷!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">RL負荷!$F$13:$F$17</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">RL負荷!$F$22:$F$26</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">RL負荷!$F$4:$F$8</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">RL負荷!$K$4:$K$8</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">RL負荷!$N$4:$N$8</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">RL負荷!$C$13:$C$17</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">RL負荷!$C$22:$C$26</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">RL負荷!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">RL負荷!$F$13:$F$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">RL負荷!$C$4:$C$8</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">RL負荷!$F$22:$F$26</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">RL負荷!$F$4:$F$8</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">RL負荷!$K$4:$K$8</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">RL負荷!$N$4:$N$8</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">RL負荷!$F$13:$F$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">RL負荷!$F$22:$F$26</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">RL負荷!$F$4:$F$8</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">RL負荷!$K$4:$K$8</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">RL負荷!$N$4:$N$8</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">RL負荷!$C$13:$C$17</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">RL負荷!$C$22:$C$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -471,9 +497,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +507,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,6 +1246,697 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>I=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent5"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(RL負荷!$F$4,RL負荷!$F$13,RL負荷!$F$22,RL負荷!$N$4,RL負荷!$N$13)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(RL負荷!$C$4,RL負荷!$C$13,RL負荷!$C$22,RL負荷!$K$13,RL負荷!$K$4)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>102.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C752-224A-9B72-859D12FA41E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(RL負荷!$N$14,RL負荷!$N$5,RL負荷!$F$5,RL負荷!$F$14,RL負荷!$F$23)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.36499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(RL負荷!$K$5,RL負荷!$K$14,RL負荷!$C$23,RL負荷!$C$14,RL負荷!$C$5)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-C752-224A-9B72-859D12FA41E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(RL負荷!$F$6,RL負荷!$F$15,RL負荷!$F$24,RL負荷!$N$15,RL負荷!$N$6)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(RL負荷!$K$6,RL負荷!$K$15,RL負荷!$C$24,RL負荷!$C$15,RL負荷!$C$6)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-C752-224A-9B72-859D12FA41E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(RL負荷!$F$7,RL負荷!$F$16,RL負荷!$F$25,RL負荷!$N$16,RL負荷!$N$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(RL負荷!$K$7,RL負荷!$K$16,RL負荷!$C$25,RL負荷!$C$16,RL負荷!$C$7)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>322.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>407.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C752-224A-9B72-859D12FA41E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(RL負荷!$F$8,RL負荷!$F$17,RL負荷!$F$26,RL負荷!$N$17,RL負荷!$N$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(RL負荷!$K$8,RL負荷!$K$17,RL負荷!$C$26,RL負荷!$C$17,RL負荷!$C$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0_ </c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>497.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-C752-224A-9B72-859D12FA41E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="176519583"/>
+        <c:axId val="144750095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="176519583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="144750095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="144750095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="176519583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1982,6 +2699,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2499,6 +3256,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3047,6 +4320,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357372</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>46073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1432442</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29535</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="グラフ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02689B3-3D6E-CB9E-D4C5-1B6FD8777CB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3393,31 +4702,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8840A58-50CD-6F47-B94C-470F4D6186F0}">
-  <dimension ref="B2:P35"/>
+  <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C8" activeCellId="1" sqref="F4:F8 C4:C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="K4" activeCellId="9" sqref="F4 C4 C13 F13 C22 F22 K13 N13 N4 K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:19">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
       <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:19">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -3460,289 +4769,294 @@
       <c r="P3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
+      <c r="S3" s="1"/>
+    </row>
+    <row r="4" spans="2:19">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <f>20.5*5</f>
         <v>102.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>103.1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>1.01</v>
       </c>
       <c r="F4">
         <v>0.99199999999999999</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>C4/(D4*E4)</f>
         <v>0.98433703700146935</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f>D4*E4</f>
         <v>104.131</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f>11*5</f>
         <v>55</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>104.7</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>1</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <f>K4/(L4*M4)</f>
         <v>0.52531041069723017</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <f>L4*M4</f>
         <v>104.7</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="2:19">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <f>41*5</f>
         <v>205</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>102.2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2.0099999999999998</v>
       </c>
       <c r="F5">
         <v>0.995</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G8" si="0">C5/(D5*E5)</f>
         <v>0.99794569228222885</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f t="shared" ref="H5:H8" si="1">D5*E5</f>
         <v>205.422</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f>19.5*5</f>
         <v>97.5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>104</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>2.04</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <v>0.5</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <f t="shared" ref="O5:O8" si="2">K5/(L5*M5)</f>
         <v>0.4595588235294118</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <f t="shared" ref="P5:P8" si="3">L5*M5</f>
         <v>212.16</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <f>60.2*5</f>
         <v>301</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>101.9</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2.98</v>
       </c>
       <c r="F6">
         <v>0.996</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>0.99123367428259035</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>303.66200000000003</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f>27.2*5</f>
         <v>136</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>103.8</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>3</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="3">
         <v>0.47799999999999998</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <f t="shared" si="2"/>
         <v>0.43673731535003213</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <f t="shared" si="3"/>
         <v>311.39999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <f>81.5*5</f>
         <v>407.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>101</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>4</v>
       </c>
       <c r="F7">
         <v>0.997</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>1.0086633663366336</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>404</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f>35.8*5</f>
         <v>179</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>103.1</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>4.01</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="3">
         <v>0.47</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <f t="shared" si="2"/>
         <v>0.43296221134844753</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <f t="shared" si="3"/>
         <v>413.43099999999998</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="2:19">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <f>99.5*5</f>
         <v>497.5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>100.8</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>5</v>
       </c>
       <c r="F8">
         <v>0.998</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>0.98710317460317465</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>504</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f>43.4*5</f>
         <v>217</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>103</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>5.01</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="3">
         <v>0.46</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <f t="shared" si="2"/>
         <v>0.42051818692711668</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <f t="shared" si="3"/>
         <v>516.03</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="1" t="s">
+    <row r="9" spans="2:19">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="5"/>
       <c r="J11" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="2"/>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12" t="s">
         <v>46</v>
       </c>
@@ -3786,202 +5100,202 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:19">
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <f>11.8*5</f>
         <v>59</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>104.3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.83</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <f>C13/(D13*E13)</f>
         <v>0.56567593480345157</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f>D13*E13</f>
         <v>104.3</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <f>7.5*5</f>
         <v>37.5</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>104.9</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>0.99</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <v>0.46</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <f>K13/(L13*M13)</f>
         <v>0.36109426004564232</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <f>L13*M13</f>
         <v>103.851</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:19">
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <f>32*5</f>
         <v>160</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>104</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>1.95</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>0.81699999999999995</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <f t="shared" ref="G14:G17" si="4">C14/(D14*E14)</f>
         <v>0.78895463510848129</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" ref="H14:H17" si="5">D14*E14</f>
         <v>202.79999999999998</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <f>12.5*5</f>
         <v>62.5</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>104.2</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <v>0.36499999999999999</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <f t="shared" ref="O14:O17" si="6">K14/(L14*M14)</f>
         <v>0.29547195143859384</v>
       </c>
-      <c r="P14" s="2">
+      <c r="P14" s="1">
         <f t="shared" ref="P14:P17" si="7">L14*M14</f>
         <v>211.52599999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:19">
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <f>48.5*5</f>
         <v>242.5</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>102.9</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>3.01</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>0.8</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <f t="shared" si="4"/>
         <v>0.78294250780521035</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <f t="shared" si="5"/>
         <v>309.72899999999998</v>
       </c>
       <c r="J15">
         <v>3</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <f>16.5*5</f>
         <v>82.5</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>104.1</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>2.99</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <v>0.316</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <f t="shared" si="6"/>
         <v>0.26505257679296018</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <f t="shared" si="7"/>
         <v>311.25900000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:19">
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <f>64.5*5</f>
         <v>322.5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>102.3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>4.04</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <f t="shared" si="4"/>
         <v>0.78031996748061905</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <f t="shared" si="5"/>
         <v>413.29199999999997</v>
       </c>
       <c r="J16">
         <v>4</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f>21.2*5</f>
         <v>106</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>103.9</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>4.0199999999999996</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>0.3</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <f t="shared" si="6"/>
         <v>0.25378401543772955</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="1">
         <f t="shared" si="7"/>
         <v>417.678</v>
       </c>
@@ -3990,86 +5304,86 @@
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <f>79*5</f>
         <v>395</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>101.9</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>5.01</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>0.79800000000000004</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <f t="shared" si="4"/>
         <v>0.77372242756880738</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <f t="shared" si="5"/>
         <v>510.51900000000001</v>
       </c>
       <c r="J17">
         <v>5</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f>25*5</f>
         <v>125</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>104</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>5.01</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <f t="shared" si="6"/>
         <v>0.23990480577306927</v>
       </c>
-      <c r="P17" s="2">
+      <c r="P17" s="1">
         <f t="shared" si="7"/>
         <v>521.04</v>
       </c>
     </row>
     <row r="18" spans="2:16">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="2"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
     </row>
     <row r="19" spans="2:16">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="2"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" spans="2:16">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="2"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
@@ -4093,93 +5407,93 @@
       <c r="H21" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="1"/>
     </row>
     <row r="22" spans="2:16">
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <f>13.8*5</f>
         <v>69</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>104.1</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1.01</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>0.70099999999999996</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <f>C22/(D22*E22)</f>
         <v>0.65626159157702524</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="1">
         <f>D22*E22</f>
         <v>105.14099999999999</v>
       </c>
       <c r="K22" t="s">
         <v>7</v>
       </c>
-      <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:16">
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <f>26.2*5</f>
         <v>131</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>103.9</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>0.65</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <f t="shared" ref="G23:G26" si="8">C23/(D23*E23)</f>
         <v>0.6210973985027286</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <f t="shared" ref="H23:H26" si="9">D23*E23</f>
         <v>210.917</v>
       </c>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="1"/>
     </row>
     <row r="24" spans="2:16">
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <f>30.8*5</f>
         <v>154</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>103</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>2.99</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>0.64</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <f t="shared" si="8"/>
         <v>0.50004870604279639</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="1">
         <f t="shared" si="9"/>
         <v>307.97000000000003</v>
       </c>
@@ -4188,24 +5502,24 @@
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <f>50.5*5</f>
         <v>252.5</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>102.9</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>3.99</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>0.63800000000000001</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <f t="shared" si="8"/>
         <v>0.61499716248833936</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <f t="shared" si="9"/>
         <v>410.57100000000003</v>
       </c>
@@ -4214,30 +5528,30 @@
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <f>61*5</f>
         <v>305</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="1">
         <v>102.1</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>4.9800000000000004</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="3">
         <v>0.625</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <f t="shared" si="8"/>
         <v>0.59985288853749963</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="1">
         <f t="shared" si="9"/>
         <v>508.45800000000003</v>
       </c>
     </row>
     <row r="27" spans="2:16">
-      <c r="H27" s="2"/>
+      <c r="H27" s="1"/>
     </row>
     <row r="29" spans="2:16">
       <c r="F29" t="s">
@@ -4245,24 +5559,24 @@
       </c>
     </row>
     <row r="31" spans="2:16">
-      <c r="C31" s="3"/>
-      <c r="E31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:16">
-      <c r="C32" s="3"/>
-      <c r="E32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="3:5">
-      <c r="C33" s="3"/>
-      <c r="E33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="3:5">
-      <c r="C34" s="3"/>
-      <c r="E34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="3:5">
-      <c r="C35" s="3"/>
-      <c r="E35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="E35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4297,14 +5611,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="C2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="5"/>
       <c r="M2" t="s">
         <v>5</v>
       </c>
@@ -4366,48 +5680,48 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f>22.5*5</f>
         <v>112.5</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>107</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>1.02</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <f>F4/(G4*H4)</f>
         <v>1.0307861462341945</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <f>G4*H4</f>
         <v>109.14</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f>13.8*5</f>
         <v>69</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>107.9</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>1.01</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>-0.64</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <f>N4/(O4*P4)</f>
         <v>0.63314950586810292</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="1">
         <f>O4*P4</f>
         <v>108.97900000000001</v>
       </c>
@@ -4419,48 +5733,48 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f>42.8*5</f>
         <v>214</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>106.1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>0.996</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <f t="shared" ref="J5:J8" si="0">F5/(G5*H5)</f>
         <v>1.0034652374320669</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <f t="shared" ref="K5:K8" si="1">G5*H5</f>
         <v>213.26099999999997</v>
       </c>
       <c r="M5">
         <v>2</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <f>23.2*5</f>
         <v>116</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>107.5</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>2.02</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>-0.52</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <f t="shared" ref="R5:R8" si="2">N5/(O5*P5)</f>
         <v>0.53419295417913881</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="1">
         <f t="shared" ref="S5:S8" si="3">O5*P5</f>
         <v>217.15</v>
       </c>
@@ -4472,48 +5786,48 @@
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f>63.8*5</f>
         <v>319</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>105.7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>3.01</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>0.997</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <f t="shared" si="0"/>
         <v>1.0026496352429777</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <f t="shared" si="1"/>
         <v>318.15699999999998</v>
       </c>
       <c r="M6">
         <v>3</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f>32.2*5</f>
         <v>161</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>107</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>2.99</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="3">
         <v>-0.48</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="3">
         <f t="shared" si="2"/>
         <v>0.50323508267433503</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="1">
         <f t="shared" si="3"/>
         <v>319.93</v>
       </c>
@@ -4525,48 +5839,48 @@
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f>85.5*5</f>
         <v>427.5</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>105</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>4.0199999999999996</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>0.997</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <f t="shared" si="0"/>
         <v>1.0127931769722816</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <f t="shared" si="1"/>
         <v>422.09999999999997</v>
       </c>
       <c r="M7">
         <v>4</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f>42.2*5</f>
         <v>211</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <v>106.9</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>3.98</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="3">
         <v>-0.46600000000000003</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="3">
         <f t="shared" si="2"/>
         <v>0.49593148154241734</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="1">
         <f t="shared" si="3"/>
         <v>425.46200000000005</v>
       </c>
@@ -4578,92 +5892,92 @@
       <c r="E8">
         <v>5</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f>104.2*5</f>
         <v>521</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>103.9</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>0.998</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>0.99889182442511004</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f t="shared" si="1"/>
         <v>521.57799999999997</v>
       </c>
       <c r="M8">
         <v>5</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <f>61*5</f>
         <v>305</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <v>106.2</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>5.03</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="3">
         <f t="shared" si="2"/>
         <v>0.57096217422395945</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <f t="shared" si="3"/>
         <v>534.18600000000004</v>
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="H9" s="3"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="2"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19">
-      <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="2"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:19">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="1"/>
       <c r="M11" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" t="s">
@@ -4722,48 +6036,48 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f>19.5*5</f>
         <v>97.5</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>107.7</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>-0.90100000000000002</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <f>F13/(G13*H13)</f>
         <v>0.90529247910863508</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <f>G13*H13</f>
         <v>107.7</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <f>9*5</f>
         <v>45</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <v>108.1</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>0.99</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <v>-0.48</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <f>N13/(O13*P13)</f>
         <v>0.42048608191068881</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="1">
         <f>O13*P13</f>
         <v>107.01899999999999</v>
       </c>
@@ -4775,48 +6089,48 @@
       <c r="E14">
         <v>2</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f>37.2*5</f>
         <v>186</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>106.9</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>-0.84199999999999997</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <f t="shared" ref="J14:J17" si="4">F14/(G14*H14)</f>
         <v>0.85711520826517129</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <f t="shared" ref="K14:K17" si="5">G14*H14</f>
         <v>217.00699999999998</v>
       </c>
       <c r="M14">
         <v>2</v>
       </c>
-      <c r="N14" s="2">
+      <c r="N14" s="1">
         <f>14*5</f>
         <v>70</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="1">
         <v>107.9</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <v>-0.32</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <f t="shared" ref="R14:R17" si="6">N14/(O14*P14)</f>
         <v>0.32276061767160491</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S14" s="1">
         <f t="shared" ref="S14:S17" si="7">O14*P14</f>
         <v>216.87899999999999</v>
       </c>
@@ -4828,48 +6142,48 @@
       <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <f>53*5</f>
         <v>265</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>106.1</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>2.97</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>-0.83</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <f t="shared" si="4"/>
         <v>0.84095748563232064</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <f t="shared" si="5"/>
         <v>315.11700000000002</v>
       </c>
       <c r="M15">
         <v>3</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <f>18.8*5</f>
         <v>94</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>107.8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>3</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <f t="shared" si="6"/>
         <v>0.29066171923314782</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="1">
         <f t="shared" si="7"/>
         <v>323.39999999999998</v>
       </c>
@@ -4881,48 +6195,48 @@
       <c r="E16">
         <v>4</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f>70*5</f>
         <v>350</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>105.5</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>3.95</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>-0.82199999999999995</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <f t="shared" si="4"/>
         <v>0.83988241646169537</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <f t="shared" si="5"/>
         <v>416.72500000000002</v>
       </c>
       <c r="M16">
         <v>4</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="1">
         <f>24*5</f>
         <v>120</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="1">
         <v>107.7</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <v>4.08</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <v>-0.26</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <f t="shared" si="6"/>
         <v>0.27308973728767272</v>
       </c>
-      <c r="S16" s="2">
+      <c r="S16" s="1">
         <f t="shared" si="7"/>
         <v>439.416</v>
       </c>
@@ -4934,64 +6248,64 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <f>86.4*5</f>
         <v>432</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>105</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>-0.82</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <f t="shared" si="4"/>
         <v>0.83965014577259478</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f t="shared" si="5"/>
         <v>514.5</v>
       </c>
       <c r="M17">
         <v>5</v>
       </c>
-      <c r="N17" s="2">
+      <c r="N17" s="1">
         <f>28.8*5</f>
         <v>144</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="1">
         <v>107.1</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>5</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <v>-0.24</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <f t="shared" si="6"/>
         <v>0.26890756302521007</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="1">
         <f t="shared" si="7"/>
         <v>535.5</v>
       </c>
     </row>
     <row r="18" spans="2:19">
-      <c r="H18" s="3"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="2"/>
-      <c r="S18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="1"/>
+      <c r="S18" s="1"/>
     </row>
     <row r="19" spans="2:19">
-      <c r="H19" s="3"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:19">
       <c r="B20" t="s">
@@ -5000,10 +6314,10 @@
       <c r="E20" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="2:19">
       <c r="B21" t="s">
@@ -5041,24 +6355,24 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <f>16.9*5</f>
         <v>84.5</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>107.9</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>-0.79</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <f>F22/(G22*H22)</f>
         <v>0.7831325301204819</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <f>G22*H22</f>
         <v>107.9</v>
       </c>
@@ -5073,24 +6387,24 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <f>31.5*5</f>
         <v>157.5</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>107.2</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>2.04</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>-0.7</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <f t="shared" ref="J23:J26" si="8">F23/(G23*H23)</f>
         <v>0.72020412642669007</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <f t="shared" ref="K23:K26" si="9">G23*H23</f>
         <v>218.68800000000002</v>
       </c>
@@ -5102,24 +6416,24 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <f>44.2*5</f>
         <v>221</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>106.1</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>2.98</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>-0.67600000000000005</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <f t="shared" si="8"/>
         <v>0.69897336310559244</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <f t="shared" si="9"/>
         <v>316.178</v>
       </c>
@@ -5131,24 +6445,24 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <f>58*5</f>
         <v>290</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>106</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>3.99</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>-0.66</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <f t="shared" si="8"/>
         <v>0.68567645528916632</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <f t="shared" si="9"/>
         <v>422.94</v>
       </c>
@@ -5160,55 +6474,55 @@
       <c r="E26">
         <v>5</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <f>71*5</f>
         <v>355</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>105.8</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="3">
         <v>-0.65</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="3">
         <f t="shared" si="8"/>
         <v>0.668403889169221</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <f t="shared" si="9"/>
         <v>531.11599999999999</v>
       </c>
     </row>
     <row r="29" spans="2:19">
-      <c r="E29" s="3"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:19">
-      <c r="E30" s="3"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="1"/>
       <c r="I30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="2:19">
-      <c r="E31" s="3"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:19">
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="3"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5301,46 +6615,46 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>39</v>
       </c>
       <c r="D5">
         <v>106.8</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0.46200000000000002</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>C5/(D5*E5)</f>
         <v>0.3651685393258427</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f>D5*E5</f>
         <v>106.8</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>46.5</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>106.9</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>1</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>-0.48399999999999999</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <f>L5/(M5*N5)</f>
         <v>0.43498596819457436</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <f>M5*N5</f>
         <v>106.9</v>
       </c>
@@ -5349,46 +6663,46 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>63.8</v>
       </c>
       <c r="D6">
         <v>106.8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>0.36</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f t="shared" ref="G6:G8" si="0">C6/(D6*E6)</f>
         <v>0.29868913857677903</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" ref="H6:H8" si="1">D6*E6</f>
         <v>213.6</v>
       </c>
       <c r="K6">
         <v>2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>71.5</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>106.3</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="3">
         <v>-0.34</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="3">
         <f t="shared" ref="P6:P8" si="2">L6/(M6*N6)</f>
         <v>0.33463912797255496</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <f t="shared" ref="Q6:Q8" si="3">M6*N6</f>
         <v>213.66299999999998</v>
       </c>
@@ -5397,46 +6711,46 @@
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>84</v>
       </c>
       <c r="D7">
         <v>106.5</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>3.05</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>0.308</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>0.25860078503809747</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>324.82499999999999</v>
       </c>
       <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>95.8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>106</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>2.99</v>
       </c>
-      <c r="O7" s="4">
+      <c r="O7" s="3">
         <v>-0.3</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="3">
         <f t="shared" si="2"/>
         <v>0.30226541301192655</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <f t="shared" si="3"/>
         <v>316.94</v>
       </c>
@@ -5445,46 +6759,46 @@
       <c r="B8">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>106</v>
       </c>
       <c r="D8">
         <v>106.1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>3.98</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>0.3</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>0.25101947058572793</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>422.27799999999996</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>119.5</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>105.9</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>4.01</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="3">
         <f t="shared" si="2"/>
         <v>0.28140225451479894</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <f t="shared" si="3"/>
         <v>424.65899999999999</v>
       </c>
@@ -5580,7 +6894,7 @@
       <c r="F5" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
     </row>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB013142-C27C-C44B-A1A5-A535DC500E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A70E24-D153-3642-8ACA-F79B10AA7061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1220" yWindow="2580" windowWidth="28100" windowHeight="16040" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
@@ -1172,6 +1172,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1311,6 +1315,13 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1330,7 +1341,29 @@
               </c:spPr>
             </c:marker>
             <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:dPt>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(RL負荷!$F$4,RL負荷!$F$13,RL負荷!$F$22,RL負荷!$N$4,RL負荷!$N$13)</c:f>
@@ -1414,6 +1447,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(RL負荷!$N$14,RL負荷!$N$5,RL負荷!$F$5,RL負荷!$F$14,RL負荷!$F$23)</c:f>
@@ -1497,6 +1545,21 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>(RL負荷!$F$6,RL負荷!$F$15,RL負荷!$F$24,RL負荷!$N$15,RL負荷!$N$6)</c:f>
@@ -4327,16 +4390,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>357372</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>46073</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>416440</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1432442</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>29535</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>708835</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>162442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4704,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8840A58-50CD-6F47-B94C-470F4D6186F0}">
   <dimension ref="B2:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="K4" activeCellId="9" sqref="F4 C4 C13 F13 C22 F22 K13 N13 N4 K4"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="86" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A70E24-D153-3642-8ACA-F79B10AA7061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1BAE56-8F35-3E42-8648-082EC7C59E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="2580" windowWidth="28100" windowHeight="16040" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
+    <workbookView xWindow="5200" yWindow="4060" windowWidth="28100" windowHeight="16040" activeTab="1" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
   <sheets>
     <sheet name="RL負荷" sheetId="1" r:id="rId1"/>
@@ -65,21 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
-  <si>
-    <t>電流[A]</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">デンリュウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電力Pa[W]</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">デンリョク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
   <si>
     <t>力率1(R=1,X=1)</t>
     <rPh sb="0" eb="2">
@@ -444,6 +430,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>I=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I=2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I=3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I=4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I=5</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,6 +516,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1263,756 +1272,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>I=1</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="5"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="25400" cap="rnd">
-                <a:noFill/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(RL負荷!$F$4,RL負荷!$F$13,RL負荷!$F$22,RL負荷!$N$4,RL負荷!$N$13)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.99199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70099999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(RL負荷!$C$4,RL負荷!$C$13,RL負荷!$C$22,RL負荷!$K$13,RL負荷!$K$4)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>102.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>55</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C752-224A-9B72-859D12FA41E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(RL負荷!$N$14,RL負荷!$N$5,RL負荷!$F$5,RL負荷!$F$14,RL負荷!$F$23)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.36499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="General">
-                  <c:v>0.995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.81699999999999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(RL負荷!$K$5,RL負荷!$K$14,RL負荷!$C$23,RL負荷!$C$14,RL負荷!$C$5)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>97.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>62.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>205</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-C752-224A-9B72-859D12FA41E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>3</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="movingAvg"/>
-            <c:period val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(RL負荷!$F$6,RL負荷!$F$15,RL負荷!$F$24,RL負荷!$N$15,RL負荷!$N$6)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.316</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47799999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(RL負荷!$K$6,RL負荷!$K$15,RL負荷!$C$24,RL負荷!$C$15,RL負荷!$C$6)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>82.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>242.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-C752-224A-9B72-859D12FA41E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>4</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(RL負荷!$F$7,RL負荷!$F$16,RL負荷!$F$25,RL負荷!$N$16,RL負荷!$N$7)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63800000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(RL負荷!$K$7,RL負荷!$K$16,RL負荷!$C$25,RL負荷!$C$16,RL負荷!$C$7)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>252.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>322.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>407.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-C752-224A-9B72-859D12FA41E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>5</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>(RL負荷!$F$8,RL負荷!$F$17,RL負荷!$F$26,RL負荷!$N$17,RL負荷!$N$8)</c:f>
-              <c:numCache>
-                <c:formatCode>0.000_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0.998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.79800000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>(RL負荷!$K$8,RL負荷!$K$17,RL負荷!$C$26,RL負荷!$C$17,RL負荷!$C$8)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0_ </c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>497.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-C752-224A-9B72-859D12FA41E9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="176519583"/>
-        <c:axId val="144750095"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="176519583"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="144750095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="144750095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="176519583"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
     <c:title>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2079,7 +1338,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RC負荷!$H$4:$H$8</c:f>
+              <c:f>RC負荷!$E$4:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2103,7 +1362,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RC負荷!$F$4:$F$8</c:f>
+              <c:f>RC負荷!$C$4:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2162,7 +1421,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RC負荷!$H$13:$H$17</c:f>
+              <c:f>RC負荷!$E$13:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2186,7 +1445,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RC負荷!$F$13:$F$17</c:f>
+              <c:f>RC負荷!$C$13:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2245,7 +1504,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RC負荷!$H$22:$H$26</c:f>
+              <c:f>RC負荷!$E$22:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2269,7 +1528,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RC負荷!$F$22:$F$26</c:f>
+              <c:f>RC負荷!$C$22:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2328,7 +1587,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RC負荷!$P$4:$P$8</c:f>
+              <c:f>RC負荷!$M$4:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2352,7 +1611,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RC負荷!$N$4:$N$8</c:f>
+              <c:f>RC負荷!$K$4:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2411,7 +1670,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>RC負荷!$P$13:$P$17</c:f>
+              <c:f>RC負荷!$M$13:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2435,7 +1694,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>RC負荷!$N$13:$N$17</c:f>
+              <c:f>RC負荷!$K$13:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>0.0_ </c:formatCode>
                 <c:ptCount val="5"/>
@@ -2723,46 +1982,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3834,522 +3053,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4388,42 +3091,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>416440</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>60841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>708835</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>162442</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="グラフ 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02689B3-3D6E-CB9E-D4C5-1B6FD8777CB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4431,16 +3098,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1553117</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>329580</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>222250</xdr:rowOff>
+      <xdr:rowOff>20908</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4765,10 +3432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8840A58-50CD-6F47-B94C-470F4D6186F0}">
-  <dimension ref="B2:S35"/>
+  <dimension ref="B2:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="86" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="D1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4780,61 +3447,106 @@
     <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:27">
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5"/>
       <c r="J2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27">
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
         <v>48</v>
       </c>
-      <c r="E3" t="s">
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="O3" t="s">
         <v>50</v>
       </c>
-      <c r="J3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>48</v>
       </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="1"/>
-    </row>
-    <row r="4" spans="2:19">
+      <c r="R3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="S3" s="1">
+        <f>20.5*5</f>
+        <v>102.5</v>
+      </c>
+      <c r="T3">
+        <v>0.995</v>
+      </c>
+      <c r="U3">
+        <v>205</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="W3">
+        <v>301</v>
+      </c>
+      <c r="X3">
+        <v>0.997</v>
+      </c>
+      <c r="Y3">
+        <v>407.5</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="AA3">
+        <v>497.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27">
       <c r="B4">
         <v>1</v>
       </c>
@@ -4883,9 +3595,39 @@
         <f>L4*M4</f>
         <v>104.7</v>
       </c>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="2:19">
+      <c r="R4" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="S4" s="1">
+        <f>11.8*5</f>
+        <v>59</v>
+      </c>
+      <c r="T4">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="U4">
+        <v>160</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="W4">
+        <v>242.5</v>
+      </c>
+      <c r="X4">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="Y4">
+        <v>322.5</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AA4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
       <c r="B5">
         <v>2</v>
       </c>
@@ -4934,9 +3676,38 @@
         <f t="shared" ref="P5:P8" si="3">L5*M5</f>
         <v>212.16</v>
       </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="2:19">
+      <c r="R5" s="3">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="S5" s="1">
+        <v>69</v>
+      </c>
+      <c r="T5">
+        <v>0.65</v>
+      </c>
+      <c r="U5">
+        <v>131</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="W5">
+        <v>154</v>
+      </c>
+      <c r="X5">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>252.5</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="AA5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
       <c r="B6">
         <v>3</v>
       </c>
@@ -4985,9 +3756,38 @@
         <f t="shared" si="3"/>
         <v>311.39999999999998</v>
       </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="2:19">
+      <c r="R6" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S6" s="1">
+        <v>55</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>97.5</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="W6">
+        <v>136</v>
+      </c>
+      <c r="X6">
+        <v>0.47</v>
+      </c>
+      <c r="Y6">
+        <v>179</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="AA6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
       <c r="B7">
         <v>4</v>
       </c>
@@ -5036,9 +3836,39 @@
         <f t="shared" si="3"/>
         <v>413.43099999999998</v>
       </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="2:19">
+      <c r="R7" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="S7" s="1">
+        <f>7.5*5</f>
+        <v>37.5</v>
+      </c>
+      <c r="T7">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="U7">
+        <v>62.5</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0.316</v>
+      </c>
+      <c r="W7">
+        <v>82.5</v>
+      </c>
+      <c r="X7">
+        <v>0.3</v>
+      </c>
+      <c r="Y7">
+        <v>106</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA7">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27">
       <c r="B8">
         <v>5</v>
       </c>
@@ -5088,7 +3918,7 @@
         <v>516.03</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:27">
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="2"/>
@@ -5096,7 +3926,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:27">
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="2"/>
@@ -5104,13 +3934,13 @@
       <c r="O10" s="3"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:27">
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5"/>
       <c r="J11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -5119,51 +3949,51 @@
       <c r="O11" s="3"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:27">
       <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="N12" t="s">
         <v>49</v>
       </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="O12" t="s">
         <v>50</v>
       </c>
-      <c r="J12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" t="s">
+      <c r="P12" t="s">
         <v>48</v>
       </c>
-      <c r="M12" t="s">
-        <v>49</v>
-      </c>
-      <c r="N12" t="s">
-        <v>51</v>
-      </c>
-      <c r="O12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19">
+    </row>
+    <row r="13" spans="2:27">
       <c r="B13">
         <v>1</v>
       </c>
@@ -5213,7 +4043,7 @@
         <v>103.851</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:27">
       <c r="B14">
         <v>2</v>
       </c>
@@ -5263,7 +4093,7 @@
         <v>211.52599999999998</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:27">
       <c r="B15">
         <v>3</v>
       </c>
@@ -5313,7 +4143,7 @@
         <v>311.25900000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:27">
       <c r="B16">
         <v>4</v>
       </c>
@@ -5436,7 +4266,7 @@
     </row>
     <row r="20" spans="2:16">
       <c r="B20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -5450,25 +4280,25 @@
     </row>
     <row r="21" spans="2:16">
       <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
         <v>47</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
         <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" t="s">
-        <v>50</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="3"/>
@@ -5500,7 +4330,7 @@
         <v>105.14099999999999</v>
       </c>
       <c r="K22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="3"/>
@@ -5618,7 +4448,7 @@
     </row>
     <row r="29" spans="2:16">
       <c r="F29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="2:16">
@@ -5654,945 +4484,1035 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5116BCC-5083-3C46-BB12-09DA1B273972}">
-  <dimension ref="B2:S33"/>
+  <dimension ref="B2:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E33" sqref="E29:G33"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21:X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19">
+    <row r="2" spans="2:16">
       <c r="B2" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="M2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19">
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
       </c>
       <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" t="s">
+      <c r="M3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
         <v>48</v>
       </c>
-      <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19">
+    </row>
+    <row r="4" spans="2:16">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="C4" s="1">
         <f>22.5*5</f>
         <v>112.5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="D4" s="1">
         <v>107</v>
       </c>
-      <c r="H4" s="2">
+      <c r="E4" s="2">
         <v>1.02</v>
       </c>
-      <c r="I4" s="3">
+      <c r="F4" s="3">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J4" s="3">
-        <f>F4/(G4*H4)</f>
+      <c r="G4" s="3">
+        <f>C4/(D4*E4)</f>
         <v>1.0307861462341945</v>
       </c>
+      <c r="H4" s="1">
+        <f>D4*E4</f>
+        <v>109.14</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
       <c r="K4" s="1">
-        <f>G4*H4</f>
-        <v>109.14</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1">
         <f>13.8*5</f>
         <v>69</v>
       </c>
-      <c r="O4" s="1">
+      <c r="L4" s="1">
         <v>107.9</v>
       </c>
-      <c r="P4" s="2">
+      <c r="M4" s="2">
         <v>1.01</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="N4" s="3">
         <v>-0.64</v>
       </c>
-      <c r="R4" s="3">
-        <f>N4/(O4*P4)</f>
+      <c r="O4" s="3">
+        <f>K4/(L4*M4)</f>
         <v>0.63314950586810292</v>
       </c>
-      <c r="S4" s="1">
-        <f>O4*P4</f>
+      <c r="P4" s="1">
+        <f>L4*M4</f>
         <v>108.97900000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:16">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="C5" s="1">
         <f>42.8*5</f>
         <v>214</v>
       </c>
-      <c r="G5" s="1">
+      <c r="D5" s="1">
         <v>106.1</v>
       </c>
-      <c r="H5" s="2">
+      <c r="E5" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="I5" s="3">
+      <c r="F5" s="3">
         <v>0.996</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" ref="J5:J8" si="0">F5/(G5*H5)</f>
+      <c r="G5" s="3">
+        <f t="shared" ref="G5:G8" si="0">C5/(D5*E5)</f>
         <v>1.0034652374320669</v>
       </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H8" si="1">D5*E5</f>
+        <v>213.26099999999997</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K5:K8" si="1">G5*H5</f>
-        <v>213.26099999999997</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5" s="1">
         <f>23.2*5</f>
         <v>116</v>
       </c>
-      <c r="O5" s="1">
+      <c r="L5" s="1">
         <v>107.5</v>
       </c>
-      <c r="P5" s="2">
+      <c r="M5" s="2">
         <v>2.02</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="N5" s="3">
         <v>-0.52</v>
       </c>
-      <c r="R5" s="3">
-        <f t="shared" ref="R5:R8" si="2">N5/(O5*P5)</f>
+      <c r="O5" s="3">
+        <f t="shared" ref="O5:O8" si="2">K5/(L5*M5)</f>
         <v>0.53419295417913881</v>
       </c>
-      <c r="S5" s="1">
-        <f t="shared" ref="S5:S8" si="3">O5*P5</f>
+      <c r="P5" s="1">
+        <f t="shared" ref="P5:P8" si="3">L5*M5</f>
         <v>217.15</v>
       </c>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:16">
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="C6" s="1">
         <f>63.8*5</f>
         <v>319</v>
       </c>
-      <c r="G6" s="1">
+      <c r="D6" s="1">
         <v>105.7</v>
       </c>
-      <c r="H6" s="2">
+      <c r="E6" s="2">
         <v>3.01</v>
       </c>
-      <c r="I6" s="3">
+      <c r="F6" s="3">
         <v>0.997</v>
       </c>
-      <c r="J6" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>1.0026496352429777</v>
       </c>
-      <c r="K6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>318.15699999999998</v>
       </c>
-      <c r="M6">
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="N6" s="1">
+      <c r="K6" s="1">
         <f>32.2*5</f>
         <v>161</v>
       </c>
-      <c r="O6" s="1">
+      <c r="L6" s="1">
         <v>107</v>
       </c>
-      <c r="P6" s="2">
+      <c r="M6" s="2">
         <v>2.99</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="N6" s="3">
         <v>-0.48</v>
       </c>
-      <c r="R6" s="3">
+      <c r="O6" s="3">
         <f t="shared" si="2"/>
         <v>0.50323508267433503</v>
       </c>
-      <c r="S6" s="1">
+      <c r="P6" s="1">
         <f t="shared" si="3"/>
         <v>319.93</v>
       </c>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:16">
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7" s="1">
         <f>85.5*5</f>
         <v>427.5</v>
       </c>
-      <c r="G7" s="1">
+      <c r="D7" s="1">
         <v>105</v>
       </c>
-      <c r="H7" s="2">
+      <c r="E7" s="2">
         <v>4.0199999999999996</v>
       </c>
-      <c r="I7" s="3">
+      <c r="F7" s="3">
         <v>0.997</v>
       </c>
-      <c r="J7" s="3">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>1.0127931769722816</v>
       </c>
-      <c r="K7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>422.09999999999997</v>
       </c>
-      <c r="M7">
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="N7" s="1">
+      <c r="K7" s="1">
         <f>42.2*5</f>
         <v>211</v>
       </c>
-      <c r="O7" s="1">
+      <c r="L7" s="1">
         <v>106.9</v>
       </c>
-      <c r="P7" s="2">
+      <c r="M7" s="2">
         <v>3.98</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="N7" s="3">
         <v>-0.46600000000000003</v>
       </c>
-      <c r="R7" s="3">
+      <c r="O7" s="3">
         <f t="shared" si="2"/>
         <v>0.49593148154241734</v>
       </c>
-      <c r="S7" s="1">
+      <c r="P7" s="1">
         <f t="shared" si="3"/>
         <v>425.46200000000005</v>
       </c>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:16">
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="C8" s="1">
         <f>104.2*5</f>
         <v>521</v>
       </c>
-      <c r="G8" s="1">
+      <c r="D8" s="1">
         <v>103.9</v>
       </c>
-      <c r="H8" s="2">
+      <c r="E8" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I8" s="3">
+      <c r="F8" s="3">
         <v>0.998</v>
       </c>
-      <c r="J8" s="3">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>0.99889182442511004</v>
       </c>
-      <c r="K8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>521.57799999999997</v>
       </c>
-      <c r="M8">
+      <c r="J8">
         <v>5</v>
       </c>
-      <c r="N8" s="1">
+      <c r="K8" s="1">
         <f>61*5</f>
         <v>305</v>
       </c>
-      <c r="O8" s="1">
+      <c r="L8" s="1">
         <v>106.2</v>
       </c>
-      <c r="P8" s="2">
+      <c r="M8" s="2">
         <v>5.03</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="N8" s="3">
         <v>-0.45800000000000002</v>
       </c>
-      <c r="R8" s="3">
+      <c r="O8" s="3">
         <f t="shared" si="2"/>
         <v>0.57096217422395945</v>
       </c>
-      <c r="S8" s="1">
+      <c r="P8" s="1">
         <f t="shared" si="3"/>
         <v>534.18600000000004</v>
       </c>
     </row>
-    <row r="9" spans="2:19">
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="1"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="2:19">
-      <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="1"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="2:19">
+    <row r="9" spans="2:16">
+      <c r="E9" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1"/>
-      <c r="M11" t="s">
-        <v>6</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="2:19">
+      <c r="E11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="J11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
       </c>
       <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>48</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="s">
         <v>46</v>
       </c>
-      <c r="F12" t="s">
+      <c r="M12" t="s">
         <v>47</v>
       </c>
-      <c r="G12" t="s">
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" t="s">
+        <v>50</v>
+      </c>
+      <c r="P12" t="s">
         <v>48</v>
       </c>
-      <c r="H12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" t="s">
-        <v>52</v>
-      </c>
-      <c r="K12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N12" t="s">
-        <v>47</v>
-      </c>
-      <c r="O12" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>51</v>
-      </c>
-      <c r="R12" t="s">
-        <v>52</v>
-      </c>
-      <c r="S12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19">
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="C13" s="1">
         <f>19.5*5</f>
         <v>97.5</v>
       </c>
-      <c r="G13" s="1">
+      <c r="D13" s="1">
         <v>107.7</v>
       </c>
-      <c r="H13" s="2">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="I13" s="3">
+      <c r="F13" s="3">
         <v>-0.90100000000000002</v>
       </c>
-      <c r="J13" s="3">
-        <f>F13/(G13*H13)</f>
+      <c r="G13" s="3">
+        <f>C13/(D13*E13)</f>
         <v>0.90529247910863508</v>
       </c>
+      <c r="H13" s="1">
+        <f>D13*E13</f>
+        <v>107.7</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
       <c r="K13" s="1">
-        <f>G13*H13</f>
-        <v>107.7</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
         <f>9*5</f>
         <v>45</v>
       </c>
-      <c r="O13" s="1">
+      <c r="L13" s="1">
         <v>108.1</v>
       </c>
-      <c r="P13" s="2">
+      <c r="M13" s="2">
         <v>0.99</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="N13" s="3">
         <v>-0.48</v>
       </c>
-      <c r="R13" s="3">
-        <f>N13/(O13*P13)</f>
+      <c r="O13" s="3">
+        <f>K13/(L13*M13)</f>
         <v>0.42048608191068881</v>
       </c>
-      <c r="S13" s="1">
-        <f>O13*P13</f>
+      <c r="P13" s="1">
+        <f>L13*M13</f>
         <v>107.01899999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:16">
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="C14" s="1">
         <f>37.2*5</f>
         <v>186</v>
       </c>
-      <c r="G14" s="1">
+      <c r="D14" s="1">
         <v>106.9</v>
       </c>
-      <c r="H14" s="2">
+      <c r="E14" s="2">
         <v>2.0299999999999998</v>
       </c>
-      <c r="I14" s="3">
+      <c r="F14" s="3">
         <v>-0.84199999999999997</v>
       </c>
-      <c r="J14" s="3">
-        <f t="shared" ref="J14:J17" si="4">F14/(G14*H14)</f>
+      <c r="G14" s="3">
+        <f t="shared" ref="G14:G17" si="4">C14/(D14*E14)</f>
         <v>0.85711520826517129</v>
       </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H17" si="5">D14*E14</f>
+        <v>217.00699999999998</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
       <c r="K14" s="1">
-        <f t="shared" ref="K14:K17" si="5">G14*H14</f>
-        <v>217.00699999999998</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14" s="1">
         <f>14*5</f>
         <v>70</v>
       </c>
-      <c r="O14" s="1">
+      <c r="L14" s="1">
         <v>107.9</v>
       </c>
-      <c r="P14" s="2">
+      <c r="M14" s="2">
         <v>2.0099999999999998</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="N14" s="3">
         <v>-0.32</v>
       </c>
-      <c r="R14" s="3">
-        <f t="shared" ref="R14:R17" si="6">N14/(O14*P14)</f>
+      <c r="O14" s="3">
+        <f t="shared" ref="O14:O17" si="6">K14/(L14*M14)</f>
         <v>0.32276061767160491</v>
       </c>
-      <c r="S14" s="1">
-        <f t="shared" ref="S14:S17" si="7">O14*P14</f>
+      <c r="P14" s="1">
+        <f t="shared" ref="P14:P17" si="7">L14*M14</f>
         <v>216.87899999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:16">
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="C15" s="1">
         <f>53*5</f>
         <v>265</v>
       </c>
-      <c r="G15" s="1">
+      <c r="D15" s="1">
         <v>106.1</v>
       </c>
-      <c r="H15" s="2">
+      <c r="E15" s="2">
         <v>2.97</v>
       </c>
-      <c r="I15" s="3">
+      <c r="F15" s="3">
         <v>-0.83</v>
       </c>
-      <c r="J15" s="3">
+      <c r="G15" s="3">
         <f t="shared" si="4"/>
         <v>0.84095748563232064</v>
       </c>
-      <c r="K15" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="5"/>
         <v>315.11700000000002</v>
       </c>
-      <c r="M15">
+      <c r="J15">
         <v>3</v>
       </c>
-      <c r="N15" s="1">
+      <c r="K15" s="1">
         <f>18.8*5</f>
         <v>94</v>
       </c>
-      <c r="O15" s="1">
+      <c r="L15" s="1">
         <v>107.8</v>
       </c>
-      <c r="P15" s="2">
+      <c r="M15" s="2">
         <v>3</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="N15" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="R15" s="3">
+      <c r="O15" s="3">
         <f t="shared" si="6"/>
         <v>0.29066171923314782</v>
       </c>
-      <c r="S15" s="1">
+      <c r="P15" s="1">
         <f t="shared" si="7"/>
         <v>323.39999999999998</v>
       </c>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:16">
       <c r="B16">
         <v>4</v>
       </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="C16" s="1">
         <f>70*5</f>
         <v>350</v>
       </c>
-      <c r="G16" s="1">
+      <c r="D16" s="1">
         <v>105.5</v>
       </c>
-      <c r="H16" s="2">
+      <c r="E16" s="2">
         <v>3.95</v>
       </c>
-      <c r="I16" s="3">
+      <c r="F16" s="3">
         <v>-0.82199999999999995</v>
       </c>
-      <c r="J16" s="3">
+      <c r="G16" s="3">
         <f t="shared" si="4"/>
         <v>0.83988241646169537</v>
       </c>
-      <c r="K16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="5"/>
         <v>416.72500000000002</v>
       </c>
-      <c r="M16">
+      <c r="J16">
         <v>4</v>
       </c>
-      <c r="N16" s="1">
+      <c r="K16" s="1">
         <f>24*5</f>
         <v>120</v>
       </c>
-      <c r="O16" s="1">
+      <c r="L16" s="1">
         <v>107.7</v>
       </c>
-      <c r="P16" s="2">
+      <c r="M16" s="2">
         <v>4.08</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="N16" s="3">
         <v>-0.26</v>
       </c>
-      <c r="R16" s="3">
+      <c r="O16" s="3">
         <f t="shared" si="6"/>
         <v>0.27308973728767272</v>
       </c>
-      <c r="S16" s="1">
+      <c r="P16" s="1">
         <f t="shared" si="7"/>
         <v>439.416</v>
       </c>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:24">
       <c r="B17">
         <v>5</v>
       </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="C17" s="1">
         <f>86.4*5</f>
         <v>432</v>
       </c>
-      <c r="G17" s="1">
+      <c r="D17" s="1">
         <v>105</v>
       </c>
-      <c r="H17" s="2">
+      <c r="E17" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I17" s="3">
+      <c r="F17" s="3">
         <v>-0.82</v>
       </c>
-      <c r="J17" s="3">
+      <c r="G17" s="3">
         <f t="shared" si="4"/>
         <v>0.83965014577259478</v>
       </c>
-      <c r="K17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="5"/>
         <v>514.5</v>
       </c>
-      <c r="M17">
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="N17" s="1">
+      <c r="K17" s="1">
         <f>28.8*5</f>
         <v>144</v>
       </c>
-      <c r="O17" s="1">
+      <c r="L17" s="1">
         <v>107.1</v>
       </c>
-      <c r="P17" s="2">
+      <c r="M17" s="2">
         <v>5</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="N17" s="3">
         <v>-0.24</v>
       </c>
-      <c r="R17" s="3">
+      <c r="O17" s="3">
         <f t="shared" si="6"/>
         <v>0.26890756302521007</v>
       </c>
-      <c r="S17" s="1">
+      <c r="P17" s="1">
         <f t="shared" si="7"/>
         <v>535.5</v>
       </c>
     </row>
-    <row r="18" spans="2:19">
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="1"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="2:19">
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="2:19">
+    <row r="18" spans="2:24">
+      <c r="E18" s="2"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="2:24">
+      <c r="E19" s="2"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" t="s">
+        <v>55</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
         <v>48</v>
       </c>
-      <c r="H21" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:19">
+      <c r="O21" s="3">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P21" s="1">
+        <f>22.5*5</f>
+        <v>112.5</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0.996</v>
+      </c>
+      <c r="R21">
+        <v>214</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="T21" s="3">
+        <v>319</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0.997</v>
+      </c>
+      <c r="V21">
+        <v>427.5</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0.998</v>
+      </c>
+      <c r="X21">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22">
         <v>1</v>
       </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22" s="1">
+      <c r="C22" s="1">
         <f>16.9*5</f>
         <v>84.5</v>
       </c>
-      <c r="G22" s="1">
+      <c r="D22" s="1">
         <v>107.9</v>
       </c>
-      <c r="H22" s="2">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="I22" s="3">
+      <c r="F22" s="3">
         <v>-0.79</v>
       </c>
-      <c r="J22" s="3">
-        <f>F22/(G22*H22)</f>
+      <c r="G22" s="3">
+        <f>C22/(D22*E22)</f>
         <v>0.7831325301204819</v>
       </c>
-      <c r="K22" s="1">
-        <f>G22*H22</f>
+      <c r="H22" s="1">
+        <f>D22*E22</f>
         <v>107.9</v>
       </c>
-      <c r="N22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="K22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="P22" s="1">
+        <f>19.5*5</f>
+        <v>97.5</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="R22">
+        <v>186</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="T22" s="3">
+        <v>265</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="V22">
+        <v>350</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0.82</v>
+      </c>
+      <c r="X22">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="C23" s="1">
         <f>31.5*5</f>
         <v>157.5</v>
       </c>
-      <c r="G23" s="1">
+      <c r="D23" s="1">
         <v>107.2</v>
       </c>
-      <c r="H23" s="2">
+      <c r="E23" s="2">
         <v>2.04</v>
       </c>
-      <c r="I23" s="3">
+      <c r="F23" s="3">
         <v>-0.7</v>
       </c>
-      <c r="J23" s="3">
-        <f t="shared" ref="J23:J26" si="8">F23/(G23*H23)</f>
+      <c r="G23" s="3">
+        <f t="shared" ref="G23:G26" si="8">C23/(D23*E23)</f>
         <v>0.72020412642669007</v>
       </c>
-      <c r="K23" s="1">
-        <f t="shared" ref="K23:K26" si="9">G23*H23</f>
+      <c r="H23" s="1">
+        <f t="shared" ref="H23:H26" si="9">D23*E23</f>
         <v>218.68800000000002</v>
       </c>
-    </row>
-    <row r="24" spans="2:19">
+      <c r="O23" s="3">
+        <f>ABS(F22)</f>
+        <v>0.79</v>
+      </c>
+      <c r="P23">
+        <v>84.5</v>
+      </c>
+      <c r="Q23" s="3">
+        <f>ABS(F23)</f>
+        <v>0.7</v>
+      </c>
+      <c r="R23">
+        <v>157.5</v>
+      </c>
+      <c r="S23" s="3">
+        <f>ABS(F24)</f>
+        <v>0.67600000000000005</v>
+      </c>
+      <c r="T23">
+        <v>221</v>
+      </c>
+      <c r="U23" s="3">
+        <f>ABS(F25)</f>
+        <v>0.66</v>
+      </c>
+      <c r="V23">
+        <v>290</v>
+      </c>
+      <c r="W23" s="3">
+        <f>ABS(F26)</f>
+        <v>0.65</v>
+      </c>
+      <c r="X23">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="C24" s="1">
         <f>44.2*5</f>
         <v>221</v>
       </c>
-      <c r="G24" s="1">
+      <c r="D24" s="1">
         <v>106.1</v>
       </c>
-      <c r="H24" s="2">
+      <c r="E24" s="2">
         <v>2.98</v>
       </c>
-      <c r="I24" s="3">
+      <c r="F24" s="3">
         <v>-0.67600000000000005</v>
       </c>
-      <c r="J24" s="3">
+      <c r="G24" s="3">
         <f t="shared" si="8"/>
         <v>0.69897336310559244</v>
       </c>
-      <c r="K24" s="1">
+      <c r="H24" s="1">
         <f t="shared" si="9"/>
         <v>316.178</v>
       </c>
-    </row>
-    <row r="25" spans="2:19">
+      <c r="O24" s="2">
+        <f>ABS(N4)</f>
+        <v>0.64</v>
+      </c>
+      <c r="P24">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>ABS(N5)</f>
+        <v>0.52</v>
+      </c>
+      <c r="R24">
+        <v>116</v>
+      </c>
+      <c r="S24" s="2">
+        <f>ABS(N6)</f>
+        <v>0.48</v>
+      </c>
+      <c r="T24">
+        <v>161</v>
+      </c>
+      <c r="U24" s="2">
+        <f>ABS(N7)</f>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="V24">
+        <v>211</v>
+      </c>
+      <c r="W24" s="2">
+        <f>ABS(N8)</f>
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="X24">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25">
         <v>4</v>
       </c>
-      <c r="E25">
-        <v>4</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="C25" s="1">
         <f>58*5</f>
         <v>290</v>
       </c>
-      <c r="G25" s="1">
+      <c r="D25" s="1">
         <v>106</v>
       </c>
-      <c r="H25" s="2">
+      <c r="E25" s="2">
         <v>3.99</v>
       </c>
-      <c r="I25" s="3">
+      <c r="F25" s="3">
         <v>-0.66</v>
       </c>
-      <c r="J25" s="3">
+      <c r="G25" s="3">
         <f t="shared" si="8"/>
         <v>0.68567645528916632</v>
       </c>
-      <c r="K25" s="1">
+      <c r="H25" s="1">
         <f t="shared" si="9"/>
         <v>422.94</v>
       </c>
-    </row>
-    <row r="26" spans="2:19">
+      <c r="O25">
+        <f>ABS(N13)</f>
+        <v>0.48</v>
+      </c>
+      <c r="P25">
+        <v>45</v>
+      </c>
+      <c r="Q25">
+        <f>ABS(N14)</f>
+        <v>0.32</v>
+      </c>
+      <c r="R25">
+        <v>70</v>
+      </c>
+      <c r="S25">
+        <f>ABS(N15)</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="T25">
+        <v>94</v>
+      </c>
+      <c r="U25">
+        <f>ABS(N16)</f>
+        <v>0.26</v>
+      </c>
+      <c r="V25">
+        <v>120</v>
+      </c>
+      <c r="W25">
+        <f>ABS(N17)</f>
+        <v>0.24</v>
+      </c>
+      <c r="X25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="C26" s="1">
         <f>71*5</f>
         <v>355</v>
       </c>
-      <c r="G26" s="1">
+      <c r="D26" s="1">
         <v>105.8</v>
       </c>
-      <c r="H26" s="2">
+      <c r="E26" s="2">
         <v>5.0199999999999996</v>
       </c>
-      <c r="I26" s="3">
+      <c r="F26" s="3">
         <v>-0.65</v>
       </c>
-      <c r="J26" s="3">
+      <c r="G26" s="3">
         <f t="shared" si="8"/>
         <v>0.668403889169221</v>
       </c>
-      <c r="K26" s="1">
+      <c r="H26" s="1">
         <f t="shared" si="9"/>
         <v>531.11599999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:19">
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="2:19">
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="1"/>
-      <c r="I30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19">
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="2:19">
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="5:7">
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="1"/>
+    <row r="27" spans="2:24">
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6616,62 +5536,62 @@
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:17">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -6868,7 +5788,7 @@
     </row>
     <row r="14" spans="2:17">
       <c r="K14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -6895,33 +5815,33 @@
   <sheetData>
     <row r="2" spans="3:7">
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3">
         <v>632</v>
@@ -6929,84 +5849,84 @@
     </row>
     <row r="4" spans="3:7">
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="3:7">
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
       </c>
       <c r="G8">
         <v>625</v>
@@ -7014,19 +5934,19 @@
     </row>
     <row r="9" spans="3:7">
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/powerfactor/data/1-1.xlsx
+++ b/powerfactor/data/1-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ohyamasan/Downloads/TMCIT-3rd-Report/powerfactor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1BAE56-8F35-3E42-8648-082EC7C59E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954F3A6-39FA-074C-8C87-D79BF9A7A687}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="4060" windowWidth="28100" windowHeight="16040" activeTab="1" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
+    <workbookView xWindow="5500" yWindow="3540" windowWidth="28100" windowHeight="16040" activeTab="2" xr2:uid="{8DF64DBD-C10C-E242-9CB8-F05A34D65685}"/>
   </bookViews>
   <sheets>
     <sheet name="RL負荷" sheetId="1" r:id="rId1"/>
@@ -18,32 +18,6 @@
     <sheet name="低力率" sheetId="3" r:id="rId3"/>
     <sheet name="器具" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">RL負荷!$C$13:$C$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">RL負荷!$C$22:$C$26</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">RL負荷!$C$4:$C$8</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">RL負荷!$F$13:$F$17</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">RL負荷!$F$22:$F$26</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">RL負荷!$F$4:$F$8</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">RL負荷!$K$4:$K$8</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">RL負荷!$N$4:$N$8</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">RL負荷!$C$13:$C$17</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">RL負荷!$C$22:$C$26</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">RL負荷!$C$4:$C$8</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">RL負荷!$F$13:$F$17</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">RL負荷!$C$4:$C$8</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">RL負荷!$F$22:$F$26</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">RL負荷!$F$4:$F$8</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">RL負荷!$K$4:$K$8</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">RL負荷!$N$4:$N$8</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">RL負荷!$F$13:$F$17</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">RL負荷!$F$22:$F$26</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">RL負荷!$F$4:$F$8</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">RL負荷!$K$4:$K$8</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">RL負荷!$N$4:$N$8</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">RL負荷!$C$13:$C$17</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">RL負荷!$C$22:$C$26</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -65,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="64">
   <si>
     <t>力率1(R=1,X=1)</t>
     <rPh sb="0" eb="2">
@@ -450,17 +424,74 @@
     <t>I=5</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>普通のときの相対誤差</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">フツウ </t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t xml:space="preserve">ソウタイゴサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低力率での相対誤差率</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ヒクイ </t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t xml:space="preserve">テイリキリツ </t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t xml:space="preserve">ソウタイゴサリツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低力率計</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">テイリキリツ </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">ケイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相対誤差</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ソウタイゴサ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電流</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">デンリュウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均値</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヘイキンチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="182" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="183" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,6 +504,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -499,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,10 +554,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3435,7 +3486,7 @@
   <dimension ref="B2:AA35"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="J11" sqref="J11:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3448,10 +3499,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:27">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="8"/>
       <c r="J2" t="s">
         <v>3</v>
       </c>
@@ -3935,10 +3986,10 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:27">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="8"/>
       <c r="J11" t="s">
         <v>4</v>
       </c>
@@ -4486,8 +4537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5116BCC-5083-3C46-BB12-09DA1B273972}">
   <dimension ref="B2:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:X25"/>
+    <sheetView topLeftCell="G1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4504,10 +4555,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="8"/>
       <c r="J2" t="s">
         <v>3</v>
       </c>
@@ -4827,10 +4878,10 @@
       <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:16">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="8"/>
       <c r="E11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5167,7 +5218,7 @@
       <c r="S20" t="s">
         <v>55</v>
       </c>
-      <c r="U20" s="6" t="s">
+      <c r="U20" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -5522,15 +5573,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81516389-A825-9844-BCA4-5C21616759EE}">
-  <dimension ref="B2:Q14"/>
+  <dimension ref="B2:Q25"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:Q8"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5631,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="O5" s="3">
-        <v>-0.48399999999999999</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="P5" s="3">
         <f>L5/(M5*N5)</f>
@@ -5679,7 +5731,7 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="O6" s="3">
-        <v>-0.34</v>
+        <v>0.34</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" ref="P6:P8" si="2">L6/(M6*N6)</f>
@@ -5727,7 +5779,7 @@
         <v>2.99</v>
       </c>
       <c r="O7" s="3">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="2"/>
@@ -5775,7 +5827,7 @@
         <v>4.01</v>
       </c>
       <c r="O8" s="3">
-        <v>-0.28000000000000003</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="2"/>
@@ -5786,9 +5838,470 @@
         <v>424.65899999999999</v>
       </c>
     </row>
+    <row r="10" spans="2:17">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="1"/>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <f>7.5*5</f>
+        <v>37.5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>104.9</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.46</v>
+      </c>
+      <c r="G12" s="3">
+        <f>C12/(D12*E12)</f>
+        <v>0.36109426004564232</v>
+      </c>
+      <c r="H12" s="1">
+        <f>D12*E12</f>
+        <v>103.851</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <f>9*5</f>
+        <v>45</v>
+      </c>
+      <c r="M12" s="1">
+        <v>108.1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="P12" s="3">
+        <f>L12/(M12*N12)</f>
+        <v>0.42048608191068881</v>
+      </c>
+      <c r="Q12" s="1">
+        <f>M12*N12</f>
+        <v>107.01899999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <f>12.5*5</f>
+        <v>62.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>104.2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" ref="G13:G16" si="4">C13/(D13*E13)</f>
+        <v>0.29547195143859384</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13:H16" si="5">D13*E13</f>
+        <v>211.52599999999998</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <f>14*5</f>
+        <v>70</v>
+      </c>
+      <c r="M13" s="1">
+        <v>107.9</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" ref="P13:P16" si="6">L13/(M13*N13)</f>
+        <v>0.32276061767160491</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" ref="Q13:Q16" si="7">M13*N13</f>
+        <v>216.87899999999999</v>
+      </c>
+    </row>
     <row r="14" spans="2:17">
-      <c r="K14" t="s">
-        <v>9</v>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <f>16.5*5</f>
+        <v>82.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>104.1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.99</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.316</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="4"/>
+        <v>0.26505257679296018</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="5"/>
+        <v>311.25900000000001</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <f>18.8*5</f>
+        <v>94</v>
+      </c>
+      <c r="M14" s="1">
+        <v>107.8</v>
+      </c>
+      <c r="N14" s="2">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="6"/>
+        <v>0.29066171923314782</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="7"/>
+        <v>323.39999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <f>21.2*5</f>
+        <v>106</v>
+      </c>
+      <c r="D15" s="1">
+        <v>103.9</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="4"/>
+        <v>0.25378401543772955</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="5"/>
+        <v>417.678</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" s="1">
+        <f>24*5</f>
+        <v>120</v>
+      </c>
+      <c r="M15" s="1">
+        <v>107.7</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4.08</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="6"/>
+        <v>0.27308973728767272</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="7"/>
+        <v>439.416</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>25*5</f>
+        <v>125</v>
+      </c>
+      <c r="D16" s="1">
+        <v>104</v>
+      </c>
+      <c r="E16" s="2">
+        <v>5.01</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="4"/>
+        <v>0.23990480577306927</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="5"/>
+        <v>521.04</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1">
+        <f>28.8*5</f>
+        <v>144</v>
+      </c>
+      <c r="M16" s="1">
+        <v>107.1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="6"/>
+        <v>0.26890756302521007</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="7"/>
+        <v>535.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" t="s">
+        <v>58</v>
+      </c>
+      <c r="O18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <f>ABS((F12-G12)/F12)*100</f>
+        <v>21.501247816164714</v>
+      </c>
+      <c r="D19" s="10">
+        <f>ABS(((F5-G5)/F5))*100</f>
+        <v>20.959190622111972</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="9">
+        <f>ABS((O12-P12)/O12)*100</f>
+        <v>12.398732935273159</v>
+      </c>
+      <c r="M19" s="9">
+        <f>ABS((O5-P5)/O5)*100</f>
+        <v>10.126866075501164</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" ref="C20:C22" si="8">ABS((F13-G13)/F13)*100</f>
+        <v>19.048780427782507</v>
+      </c>
+      <c r="D20" s="10">
+        <f>ABS(((F6-G6)/F6))*100</f>
+        <v>17.030794839783596</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" ref="L20:L22" si="9">ABS((O13-P13)/O13)*100</f>
+        <v>0.86269302237653234</v>
+      </c>
+      <c r="M20" s="9">
+        <f>ABS((O6-P6)/O6)*100</f>
+        <v>1.5767270668956064</v>
+      </c>
+      <c r="O20" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <f t="shared" si="8"/>
+        <v>16.122602280708804</v>
+      </c>
+      <c r="D21" s="10">
+        <f>ABS(((F7-G7)/F7))*100</f>
+        <v>16.03870615646186</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="9"/>
+        <v>3.8077568689813539</v>
+      </c>
+      <c r="M21" s="9">
+        <f>ABS((O7-P7)/O7)*100</f>
+        <v>0.75513767064218829</v>
+      </c>
+      <c r="O21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" si="8"/>
+        <v>15.40532818742348</v>
+      </c>
+      <c r="D22" s="10">
+        <f>ABS(((F8-G8)/F8))*100</f>
+        <v>16.326843138090684</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="9"/>
+        <v>5.0345143414125806</v>
+      </c>
+      <c r="M22" s="9">
+        <f>ABS((O8-P8)/O8)*100</f>
+        <v>0.5008051838567561</v>
+      </c>
+      <c r="O22" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="10">
+        <f>AVERAGE(C19:C22)</f>
+        <v>18.019489678019877</v>
+      </c>
+      <c r="D23" s="10">
+        <f>AVERAGE(D19:D22)</f>
+        <v>17.588883689112027</v>
+      </c>
+      <c r="K23" t="s">
+        <v>63</v>
+      </c>
+      <c r="L23" s="9">
+        <f>AVERAGE(L19:L22)</f>
+        <v>5.5259242920109068</v>
+      </c>
+      <c r="M23" s="9">
+        <f>AVERAGE(M19:M22)</f>
+        <v>3.2398839992239283</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="C25" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
